--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -172,16 +172,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -226,31 +229,34 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-0.17912854545454546</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.18153076923076922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126002304"/>
-        <c:axId val="126003840"/>
+        <c:axId val="109028096"/>
+        <c:axId val="109029632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126002304"/>
+        <c:axId val="109028096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126003840"/>
+        <c:crossAx val="109029632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126003840"/>
+        <c:axId val="109029632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,7 +264,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126002304"/>
+        <c:crossAx val="109028096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -271,7 +277,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -301,10 +307,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -349,16 +355,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -403,6 +412,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,10 +436,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -472,16 +484,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20180131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20180201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -526,31 +541,34 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45147.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53200.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126041472"/>
-        <c:axId val="126055552"/>
+        <c:axId val="109067264"/>
+        <c:axId val="109085440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126041472"/>
+        <c:axId val="109067264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126055552"/>
+        <c:crossAx val="109085440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126055552"/>
+        <c:axId val="109085440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +576,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126041472"/>
+        <c:crossAx val="109067264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,7 +589,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -927,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -970,11 +988,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D17" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E16" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E17" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -1242,6 +1260,25 @@
       <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>-0.17912854545454546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>20180201</v>
+      </c>
+      <c r="B17">
+        <v>65000</v>
+      </c>
+      <c r="C17">
+        <v>53200.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-11799.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.18153076923076922</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -124,10 +124,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -175,16 +175,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20180201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20180202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555557</c:v>
                 </c:pt>
@@ -232,31 +235,34 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.18153076923076922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18903076923076922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109028096"/>
-        <c:axId val="109029632"/>
+        <c:axId val="117482240"/>
+        <c:axId val="117483776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109028096"/>
+        <c:axId val="117482240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109029632"/>
+        <c:crossAx val="117483776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109029632"/>
+        <c:axId val="117483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +270,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109028096"/>
+        <c:crossAx val="117482240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -277,7 +283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -307,10 +313,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -358,16 +364,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20180201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20180202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -414,6 +423,9 @@
                   <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -436,10 +448,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -487,16 +499,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20180201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20180202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -544,31 +559,34 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>53200.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109067264"/>
-        <c:axId val="109085440"/>
+        <c:axId val="117783552"/>
+        <c:axId val="117801728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109067264"/>
+        <c:axId val="117783552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109085440"/>
+        <c:crossAx val="117801728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109085440"/>
+        <c:axId val="117801728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +594,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109067264"/>
+        <c:crossAx val="117783552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -589,7 +607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -945,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -988,11 +1006,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D18" si="0">C2-B2</f>
         <v>-8681.4700000000012</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E17" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E18" si="1">D2/B2</f>
         <v>-0.19292155555555557</v>
       </c>
     </row>
@@ -1279,6 +1297,25 @@
       <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>-0.18153076923076922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>20180202</v>
+      </c>
+      <c r="B18">
+        <v>65000</v>
+      </c>
+      <c r="C18">
+        <v>52713</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-12287</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.18903076923076922</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -1,73 +1,403 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21840" windowHeight="9630"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>日期Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本Investment Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>市值Market Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额Balance</t>
   </si>
   <si>
     <t>涨幅Amount of increase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差额Balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,9 +405,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -89,25 +661,106 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -122,12 +775,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -178,72 +834,88 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>20180202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20180205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$18</c:f>
+              <c:f>Sheet1!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-0.19292155555555557</c:v>
+                  <c:v>-0.192921555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19527488888888894</c:v>
+                  <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21116155555555549</c:v>
+                  <c:v>-0.211161555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.21051266666666665</c:v>
+                  <c:v>-0.210512666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20214377777777781</c:v>
+                  <c:v>-0.202143777777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20143711111111107</c:v>
+                  <c:v>-0.201437111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19882822222222216</c:v>
+                  <c:v>-0.198828222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.19917711111111114</c:v>
+                  <c:v>-0.199177111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.19962822222222215</c:v>
+                  <c:v>-0.199628222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19521933333333338</c:v>
+                  <c:v>-0.195219333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1960571111111111</c:v>
+                  <c:v>-0.196057111111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.19843044444444449</c:v>
+                  <c:v>-0.198430444444444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.19751266666666667</c:v>
+                  <c:v>-0.197512666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.20028822222222226</c:v>
+                  <c:v>-0.200288222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.17912854545454546</c:v>
+                  <c:v>-0.179128545454545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.18153076923076922</c:v>
+                  <c:v>-0.181530769230769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.18903076923076922</c:v>
+                  <c:v>-0.189030769230769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.193009230769231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="117482240"/>
         <c:axId val="117483776"/>
       </c:lineChart>
@@ -252,24 +924,63 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="117483776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="117483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="117482240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -278,12 +989,40 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -291,12 +1030,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -311,12 +1062,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -367,16 +1121,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>20180202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20180205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -426,11 +1183,15 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -446,12 +1207,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -502,24 +1266,27 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>20180202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20180205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36212.629999999997</c:v>
+                  <c:v>36212.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35497.730000000003</c:v>
+                  <c:v>35497.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
@@ -531,22 +1298,22 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36052.730000000003</c:v>
+                  <c:v>36052.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36037.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36016.730000000003</c:v>
+                  <c:v>36016.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36215.129999999997</c:v>
+                  <c:v>36215.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36070.629999999997</c:v>
+                  <c:v>36070.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36111.93</c:v>
@@ -562,12 +1329,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>52713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52454.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="117783552"/>
         <c:axId val="117801728"/>
       </c:lineChart>
@@ -576,24 +1356,63 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="117801728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="117801728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="117783552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -602,19 +1421,47 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -628,14 +1475,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7333615" y="2352675"/>
+        <a:ext cx="7058025" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -658,14 +1505,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7315200" y="19050"/>
+        <a:ext cx="7086600" cy="2228850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -957,21 +1804,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
@@ -989,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1007,11 +1854,11 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D18" si="0">C2-B2</f>
-        <v>-8681.4700000000012</v>
+        <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E18" si="1">D2/B2</f>
-        <v>-0.19292155555555557</v>
+        <v>-0.192921555555556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1022,15 +1869,15 @@
         <v>45000</v>
       </c>
       <c r="C3">
-        <v>36212.629999999997</v>
+        <v>36212.63</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-8787.3700000000026</v>
+        <v>-8787.37</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19527488888888894</v>
+        <v>-0.195274888888889</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1041,15 +1888,15 @@
         <v>45000</v>
       </c>
       <c r="C4">
-        <v>35497.730000000003</v>
+        <v>35497.73</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-9502.2699999999968</v>
+        <v>-9502.27</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21116155555555549</v>
+        <v>-0.211161555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1068,7 +1915,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21051266666666665</v>
+        <v>-0.210512666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1083,11 +1930,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-9096.4700000000012</v>
+        <v>-9096.47</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20214377777777781</v>
+        <v>-0.202143777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1102,11 +1949,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-9064.6699999999983</v>
+        <v>-9064.67</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20143711111111107</v>
+        <v>-0.201437111111111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1117,15 +1964,15 @@
         <v>45000</v>
       </c>
       <c r="C8">
-        <v>36052.730000000003</v>
+        <v>36052.73</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-8947.2699999999968</v>
+        <v>-8947.27</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19882822222222216</v>
+        <v>-0.198828222222222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1140,11 +1987,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-8962.9700000000012</v>
+        <v>-8962.97</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19917711111111114</v>
+        <v>-0.199177111111111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1155,15 +2002,15 @@
         <v>45000</v>
       </c>
       <c r="C10">
-        <v>36016.730000000003</v>
+        <v>36016.73</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-8983.2699999999968</v>
+        <v>-8983.27</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19962822222222215</v>
+        <v>-0.199628222222222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1174,15 +2021,15 @@
         <v>45000</v>
       </c>
       <c r="C11">
-        <v>36215.129999999997</v>
+        <v>36215.13</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-8784.8700000000026</v>
+        <v>-8784.87</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19521933333333338</v>
+        <v>-0.195219333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1201,7 +2048,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.1960571111111111</v>
+        <v>-0.196057111111111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1212,15 +2059,15 @@
         <v>45000</v>
       </c>
       <c r="C13">
-        <v>36070.629999999997</v>
+        <v>36070.63</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-8929.3700000000026</v>
+        <v>-8929.37</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19843044444444449</v>
+        <v>-0.198430444444444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1239,7 +2086,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19751266666666667</v>
+        <v>-0.197512666666667</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1254,11 +2101,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-9012.9700000000012</v>
+        <v>-9012.97</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20028822222222226</v>
+        <v>-0.200288222222222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1277,7 +2124,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.17912854545454546</v>
+        <v>-0.179128545454545</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1296,7 +2143,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>-0.18153076923076922</v>
+        <v>-0.181530769230769</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1315,39 +2162,64 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>-0.18903076923076922</v>
+        <v>-0.189030769230769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>20180205</v>
+      </c>
+      <c r="B19">
+        <v>65000</v>
+      </c>
+      <c r="C19">
+        <v>52454.4</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>-12545.6</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19/B19</f>
+        <v>-0.193009230769231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,12 +38,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,12 +55,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -91,6 +115,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,81 +181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +205,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,6 +253,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,12 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,78 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,17 +399,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,15 +449,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,16 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,23 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,46 +501,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,100 +552,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -837,16 +830,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20180205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20180206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -854,7 +850,7 @@
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555555</c:v>
+                  <c:v>-0.211161555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.210512666666667</c:v>
@@ -900,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.193009230769231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.218226153846154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,10 +1066,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1124,16 +1123,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20180205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20180206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1186,6 +1188,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1212,10 +1217,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1269,16 +1274,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20180205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20180206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1332,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>52454.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50815.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1853,11 +1864,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D18" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D19" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E18" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E19" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -1896,7 +1907,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555555</v>
+        <v>-0.211161555555556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2176,12 +2187,31 @@
         <v>52454.4</v>
       </c>
       <c r="D19">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>-12545.6</v>
       </c>
       <c r="E19" s="1">
-        <f>D19/B19</f>
+        <f t="shared" si="1"/>
         <v>-0.193009230769231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20180206</v>
+      </c>
+      <c r="B20">
+        <v>65000</v>
+      </c>
+      <c r="C20">
+        <v>50815.3</v>
+      </c>
+      <c r="D20">
+        <f>C20-B20</f>
+        <v>-14184.7</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20/B20</f>
+        <v>-0.218226153846154</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -205,31 +205,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,151 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -833,16 +833,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20180206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20180207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -899,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.218226153846154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.214512307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,10 +1072,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1126,16 +1132,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20180206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20180207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1191,6 +1200,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1217,10 +1229,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1277,16 +1289,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20180206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20180207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1343,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50815.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51056.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,15 +1524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1522,7 +1540,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7315200" y="19050"/>
+        <a:off x="7324725" y="9525"/>
         <a:ext cx="7086600" cy="2228850"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1821,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1864,11 +1882,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D20" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E19" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E20" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2206,12 +2224,31 @@
         <v>50815.3</v>
       </c>
       <c r="D20">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>-14184.7</v>
       </c>
       <c r="E20" s="1">
-        <f>D20/B20</f>
+        <f t="shared" si="1"/>
         <v>-0.218226153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20180207</v>
+      </c>
+      <c r="B21">
+        <v>65000</v>
+      </c>
+      <c r="C21">
+        <v>51056.7</v>
+      </c>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>-13943.3</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21/B21</f>
+        <v>-0.214512307692308</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,22 +61,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,8 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +205,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -217,175 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,26 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +425,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -836,16 +836,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20180207</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20180208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:f>Sheet1!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -905,6 +908,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.214512307692308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.203393846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,10 +1078,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1135,16 +1141,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20180207</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20180208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1203,6 +1212,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1229,10 +1241,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1292,16 +1304,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20180207</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20180208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1361,6 +1376,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>51056.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51779.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,10 +1857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1882,11 +1900,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D20" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D21" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E20" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E21" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2243,12 +2261,31 @@
         <v>51056.7</v>
       </c>
       <c r="D21">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>-13943.3</v>
       </c>
       <c r="E21" s="1">
-        <f>D21/B21</f>
+        <f t="shared" si="1"/>
         <v>-0.214512307692308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20180208</v>
+      </c>
+      <c r="B22">
+        <v>65000</v>
+      </c>
+      <c r="C22">
+        <v>51779.4</v>
+      </c>
+      <c r="D22">
+        <f>C22-B22</f>
+        <v>-13220.6</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22/B22</f>
+        <v>-0.203393846153846</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,16 +52,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,14 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -100,6 +92,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,39 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,19 +172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,20 +455,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,9 +479,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -839,16 +839,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20180208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20180209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$22</c:f>
+              <c:f>Sheet1!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -911,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0.203393846153846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.218761538461538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,10 +1084,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1144,16 +1150,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20180208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20180209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1215,6 +1224,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1241,10 +1253,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1307,16 +1319,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20180208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20180209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1379,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>51779.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50780.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,10 +1875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1900,11 +1918,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D21" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D22" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E21" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E22" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2280,12 +2298,31 @@
         <v>51779.4</v>
       </c>
       <c r="D22">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>-13220.6</v>
       </c>
       <c r="E22" s="1">
-        <f>D22/B22</f>
+        <f t="shared" si="1"/>
         <v>-0.203393846153846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>20180209</v>
+      </c>
+      <c r="B23">
+        <v>65000</v>
+      </c>
+      <c r="C23">
+        <v>50780.5</v>
+      </c>
+      <c r="D23">
+        <f>C23-B23</f>
+        <v>-14219.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23/B23</f>
+        <v>-0.218761538461538</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,14 +52,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -67,9 +59,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,8 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,54 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,19 +157,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +180,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,6 +211,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,18 +241,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,31 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,91 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,21 +410,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,15 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -472,6 +448,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -491,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -842,16 +842,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$23</c:f>
+              <c:f>Sheet1!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -917,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.218761538461538</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.201258461538462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,10 +1090,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1153,16 +1159,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1227,6 +1236,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1253,10 +1265,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1322,16 +1334,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20180209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20180212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1397,6 +1412,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50780.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51918.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1918,11 +1936,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D22" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D23" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E22" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E23" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2317,12 +2335,31 @@
         <v>50780.5</v>
       </c>
       <c r="D23">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>-14219.5</v>
       </c>
       <c r="E23" s="1">
-        <f>D23/B23</f>
+        <f t="shared" si="1"/>
         <v>-0.218761538461538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>20180212</v>
+      </c>
+      <c r="B24">
+        <v>65000</v>
+      </c>
+      <c r="C24">
+        <v>51918.2</v>
+      </c>
+      <c r="D24">
+        <f>C24-B24</f>
+        <v>-13081.8</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24/B24</f>
+        <v>-0.201258461538462</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,84 +59,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,9 +90,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,21 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,19 +205,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,13 +337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,145 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,45 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,7 +418,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +438,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -484,6 +460,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -845,16 +845,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$24</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -923,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.201258461538462</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.196138461538462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,10 +1096,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1162,16 +1168,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1239,6 +1248,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1265,10 +1277,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1337,16 +1349,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>20180212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20180213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$24</c:f>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1415,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>51918.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,10 +1911,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1936,11 +1954,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D23" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D24" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E23" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E24" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2354,12 +2372,31 @@
         <v>51918.2</v>
       </c>
       <c r="D24">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>-13081.8</v>
       </c>
       <c r="E24" s="1">
-        <f>D24/B24</f>
+        <f t="shared" si="1"/>
         <v>-0.201258461538462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>20180213</v>
+      </c>
+      <c r="B25">
+        <v>65000</v>
+      </c>
+      <c r="C25">
+        <v>52251</v>
+      </c>
+      <c r="D25">
+        <f>C25-B25</f>
+        <v>-12749</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25/B25</f>
+        <v>-0.196138461538462</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>日期Date</t>
   </si>
@@ -37,13 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,345 +46,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -398,251 +68,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,57 +82,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,21 +97,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -745,15 +115,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -768,15 +137,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -848,60 +214,63 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>20180213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20180214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-0.192921555555556</c:v>
+                  <c:v>-0.19292155555555601</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555556</c:v>
+                  <c:v>-0.21116155555555599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.210512666666667</c:v>
+                  <c:v>-0.21051266666666699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.202143777777778</c:v>
+                  <c:v>-0.20214377777777801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.201437111111111</c:v>
+                  <c:v>-0.20143711111111101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.198828222222222</c:v>
+                  <c:v>-0.19882822222222199</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.199177111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.199628222222222</c:v>
+                  <c:v>-0.19962822222222201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.195219333333333</c:v>
+                  <c:v>-0.19521933333333299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.196057111111111</c:v>
+                  <c:v>-0.19605711111111099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.198430444444444</c:v>
+                  <c:v>-0.19843044444444399</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.197512666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.200288222222222</c:v>
+                  <c:v>-0.20028822222222201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.179128545454545</c:v>
+                  <c:v>-0.17912854545454501</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.181530769230769</c:v>
@@ -910,54 +279,45 @@
                   <c:v>-0.189030769230769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.193009230769231</c:v>
+                  <c:v>-0.19300923076923099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.218226153846154</c:v>
+                  <c:v>-0.21822615384615399</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.214512307692308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.203393846153846</c:v>
+                  <c:v>-0.20339384615384601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.218761538461538</c:v>
+                  <c:v>-0.21876153846153801</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.201258461538462</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.196138461538462</c:v>
+                  <c:v>-0.19613846153846201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.19640307692307687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117482240"/>
-        <c:axId val="117483776"/>
+        <c:axId val="73611520"/>
+        <c:axId val="73641984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117482240"/>
+        <c:axId val="73611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -973,26 +333,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117483776"/>
+        <c:crossAx val="73641984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117483776"/>
+        <c:axId val="73641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1008,9 +365,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117482240"/>
+        <c:crossAx val="73611520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,7 +376,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -1033,12 +390,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1047,11 +404,12 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1059,24 +417,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -1091,15 +438,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1171,16 +515,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>20180213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20180214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1251,12 +598,14 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1272,9 +621,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$25</c:f>
@@ -1358,18 +704,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36212.63</c:v>
+                  <c:v>36212.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35497.73</c:v>
+                  <c:v>35497.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
@@ -1381,22 +727,22 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36052.73</c:v>
+                  <c:v>36052.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36037.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36016.73</c:v>
+                  <c:v>36016.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36215.13</c:v>
+                  <c:v>36215.129999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36070.63</c:v>
+                  <c:v>36070.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36111.93</c:v>
@@ -1414,7 +760,7 @@
                   <c:v>52713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52454.4</c:v>
+                  <c:v>52454.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50815.3</c:v>
@@ -1433,35 +779,26 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>52251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52233.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117783552"/>
-        <c:axId val="117801728"/>
+        <c:axId val="73496064"/>
+        <c:axId val="73497600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117783552"/>
+        <c:axId val="73496064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1477,26 +814,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117801728"/>
+        <c:crossAx val="73497600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117801728"/>
+        <c:axId val="73497600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1512,9 +846,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117783552"/>
+        <c:crossAx val="73496064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +857,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -1537,12 +871,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1551,18 +885,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1576,14 +911,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7333615" y="2352675"/>
-        <a:ext cx="7058025" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1606,14 +941,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7324725" y="9525"/>
-        <a:ext cx="7086600" cy="2228850"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1905,19 +1240,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1955,11 +1290,11 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D24" si="0">C2-B2</f>
-        <v>-8681.47</v>
+        <v>-8681.4699999999993</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E24" si="1">D2/B2</f>
-        <v>-0.192921555555556</v>
+        <v>-0.19292155555555601</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1970,11 +1305,11 @@
         <v>45000</v>
       </c>
       <c r="C3">
-        <v>36212.63</v>
+        <v>36212.629999999997</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-8787.37</v>
+        <v>-8787.3700000000008</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -1989,7 +1324,7 @@
         <v>45000</v>
       </c>
       <c r="C4">
-        <v>35497.73</v>
+        <v>35497.730000000003</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1997,7 +1332,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555556</v>
+        <v>-0.21116155555555599</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2016,7 +1351,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.210512666666667</v>
+        <v>-0.21051266666666699</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2031,11 +1366,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-9096.47</v>
+        <v>-9096.4699999999993</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.202143777777778</v>
+        <v>-0.20214377777777801</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2054,7 +1389,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.201437111111111</v>
+        <v>-0.20143711111111101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2065,7 +1400,7 @@
         <v>45000</v>
       </c>
       <c r="C8">
-        <v>36052.73</v>
+        <v>36052.730000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2073,7 +1408,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.198828222222222</v>
+        <v>-0.19882822222222199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2088,7 +1423,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-8962.97</v>
+        <v>-8962.9699999999993</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
@@ -2103,7 +1438,7 @@
         <v>45000</v>
       </c>
       <c r="C10">
-        <v>36016.73</v>
+        <v>36016.730000000003</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2111,7 +1446,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.199628222222222</v>
+        <v>-0.19962822222222201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2122,15 +1457,15 @@
         <v>45000</v>
       </c>
       <c r="C11">
-        <v>36215.13</v>
+        <v>36215.129999999997</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-8784.87</v>
+        <v>-8784.8700000000008</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.195219333333333</v>
+        <v>-0.19521933333333299</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2149,7 +1484,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.196057111111111</v>
+        <v>-0.19605711111111099</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2160,15 +1495,15 @@
         <v>45000</v>
       </c>
       <c r="C13">
-        <v>36070.63</v>
+        <v>36070.629999999997</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-8929.37</v>
+        <v>-8929.3700000000008</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.198430444444444</v>
+        <v>-0.19843044444444399</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2202,11 +1537,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-9012.97</v>
+        <v>-9012.9699999999993</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.200288222222222</v>
+        <v>-0.20028822222222201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2225,7 +1560,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.179128545454545</v>
+        <v>-0.17912854545454501</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2274,7 +1609,7 @@
         <v>65000</v>
       </c>
       <c r="C19">
-        <v>52454.4</v>
+        <v>52454.400000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2282,7 +1617,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>-0.193009230769231</v>
+        <v>-0.19300923076923099</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2301,7 +1636,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.218226153846154</v>
+        <v>-0.21822615384615399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2339,7 +1674,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.203393846153846</v>
+        <v>-0.20339384615384601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2358,7 +1693,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.218761538461538</v>
+        <v>-0.21876153846153801</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2396,45 +1731,58 @@
       </c>
       <c r="E25" s="1">
         <f>D25/B25</f>
-        <v>-0.196138461538462</v>
+        <v>-0.19613846153846201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>20180214</v>
+      </c>
+      <c r="B26">
+        <v>65000</v>
+      </c>
+      <c r="C26">
+        <v>52233.8</v>
+      </c>
+      <c r="D26">
+        <f>C26-B26</f>
+        <v>-12766.199999999997</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26/B26</f>
+        <v>-0.19640307692307687</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -139,10 +139,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -217,16 +217,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>20180214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20180222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555601</c:v>
                 </c:pt>
@@ -301,18 +304,20 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.19640307692307687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.1865923076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="73611520"/>
-        <c:axId val="73641984"/>
+        <c:axId val="76311168"/>
+        <c:axId val="76337536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73611520"/>
+        <c:axId val="76311168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,14 +341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73641984"/>
+        <c:crossAx val="76337536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73641984"/>
+        <c:axId val="76337536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73611520"/>
+        <c:crossAx val="76311168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -409,7 +414,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -440,10 +445,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -518,16 +523,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>20180214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20180222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -601,6 +609,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -623,10 +634,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -698,16 +709,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>20180213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20180214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20180222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -782,18 +799,20 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>52233.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52871.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="73496064"/>
-        <c:axId val="73497600"/>
+        <c:axId val="76371840"/>
+        <c:axId val="76373376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73496064"/>
+        <c:axId val="76371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,14 +836,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73497600"/>
+        <c:crossAx val="76373376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73497600"/>
+        <c:axId val="76373376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +868,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73496064"/>
+        <c:crossAx val="76371840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -890,7 +909,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1246,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1751,6 +1770,25 @@
       <c r="E26" s="1">
         <f>D26/B26</f>
         <v>-0.19640307692307687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>20180222</v>
+      </c>
+      <c r="B27">
+        <v>65000</v>
+      </c>
+      <c r="C27">
+        <v>52871.5</v>
+      </c>
+      <c r="D27">
+        <f>C27-B27</f>
+        <v>-12128.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27/B27</f>
+        <v>-0.1865923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -139,10 +139,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -220,16 +220,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>20180222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20180223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555601</c:v>
                 </c:pt>
@@ -307,17 +310,20 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.1865923076923077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.18610461538461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76311168"/>
-        <c:axId val="76337536"/>
+        <c:axId val="88237952"/>
+        <c:axId val="88239488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76311168"/>
+        <c:axId val="88237952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,14 +347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76337536"/>
+        <c:crossAx val="88239488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76337536"/>
+        <c:axId val="88239488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76311168"/>
+        <c:crossAx val="88237952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -414,7 +420,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -445,10 +451,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -526,16 +532,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>20180222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20180223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -612,6 +621,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -634,10 +646,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -715,16 +727,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>20180222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20180223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -802,17 +817,20 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52871.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52903.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76371840"/>
-        <c:axId val="76373376"/>
+        <c:axId val="78524800"/>
+        <c:axId val="78526336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76371840"/>
+        <c:axId val="78524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,14 +854,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76373376"/>
+        <c:crossAx val="78526336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76373376"/>
+        <c:axId val="78526336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76371840"/>
+        <c:crossAx val="78524800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +927,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1265,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1789,6 +1807,25 @@
       <c r="E27" s="1">
         <f>D27/B27</f>
         <v>-0.1865923076923077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>20180223</v>
+      </c>
+      <c r="B28">
+        <v>65000</v>
+      </c>
+      <c r="C28">
+        <v>52903.199999999997</v>
+      </c>
+      <c r="D28">
+        <f>C28-B28</f>
+        <v>-12096.800000000003</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28/B28</f>
+        <v>-0.18610461538461542</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>日期Date</t>
   </si>
@@ -37,7 +37,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,21 +52,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,9 +398,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -82,10 +654,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,10 +716,21 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -115,14 +745,15 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -137,12 +768,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -223,60 +857,63 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20180226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$28</c:f>
+              <c:f>Sheet1!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-0.19292155555555601</c:v>
+                  <c:v>-0.192921555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21116155555555599</c:v>
+                  <c:v>-0.211161555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.21051266666666699</c:v>
+                  <c:v>-0.210512666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20214377777777801</c:v>
+                  <c:v>-0.202143777777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20143711111111101</c:v>
+                  <c:v>-0.201437111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19882822222222199</c:v>
+                  <c:v>-0.198828222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.199177111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.19962822222222201</c:v>
+                  <c:v>-0.199628222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19521933333333299</c:v>
+                  <c:v>-0.195219333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.19605711111111099</c:v>
+                  <c:v>-0.196057111111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.19843044444444399</c:v>
+                  <c:v>-0.198430444444444</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.197512666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.20028822222222201</c:v>
+                  <c:v>-0.200288222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.17912854545454501</c:v>
+                  <c:v>-0.179128545454545</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.181530769230769</c:v>
@@ -285,40 +922,53 @@
                   <c:v>-0.189030769230769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19300923076923099</c:v>
+                  <c:v>-0.193009230769231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.21822615384615399</c:v>
+                  <c:v>-0.218226153846154</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.214512307692308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.20339384615384601</c:v>
+                  <c:v>-0.203393846153846</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.21876153846153801</c:v>
+                  <c:v>-0.218761538461538</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.201258461538462</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.19613846153846201</c:v>
+                  <c:v>-0.196138461538462</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.19640307692307687</c:v>
+                  <c:v>-0.196403076923077</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.1865923076923077</c:v>
+                  <c:v>-0.186592307692308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.18610461538461542</c:v>
+                  <c:v>-0.186104615384615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.171612307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="88237952"/>
         <c:axId val="88239488"/>
       </c:lineChart>
@@ -327,8 +977,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -344,7 +997,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88239488"/>
@@ -352,15 +1004,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="88239488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -376,7 +1032,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88237952"/>
@@ -387,6 +1042,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -401,12 +1057,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -415,12 +1071,11 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -428,13 +1083,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -449,12 +1115,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -535,16 +1204,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20180226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -624,11 +1296,15 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -644,12 +1320,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -730,24 +1409,27 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20180223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20180226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$28</c:f>
+              <c:f>Sheet1!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36212.629999999997</c:v>
+                  <c:v>36212.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35497.730000000003</c:v>
+                  <c:v>35497.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
@@ -759,22 +1441,22 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36052.730000000003</c:v>
+                  <c:v>36052.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36037.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36016.730000000003</c:v>
+                  <c:v>36016.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36215.129999999997</c:v>
+                  <c:v>36215.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36070.629999999997</c:v>
+                  <c:v>36070.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36111.93</c:v>
@@ -792,7 +1474,7 @@
                   <c:v>52713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52454.400000000001</c:v>
+                  <c:v>52454.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50815.3</c:v>
@@ -819,13 +1501,26 @@
                   <c:v>52871.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52903.199999999997</c:v>
+                  <c:v>52903.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53845.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="78524800"/>
         <c:axId val="78526336"/>
       </c:lineChart>
@@ -834,8 +1529,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -851,7 +1549,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="78526336"/>
@@ -859,15 +1556,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="78526336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -883,7 +1584,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="78524800"/>
@@ -894,6 +1594,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -908,12 +1609,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -922,19 +1623,18 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -948,14 +1648,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7333615" y="2352675"/>
+        <a:ext cx="7058025" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -978,14 +1678,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7324725" y="9525"/>
+        <a:ext cx="7086600" cy="2228850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1277,19 +1977,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1326,12 +2026,12 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D24" si="0">C2-B2</f>
-        <v>-8681.4699999999993</v>
+        <f t="shared" ref="D2:D28" si="0">C2-B2</f>
+        <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E24" si="1">D2/B2</f>
-        <v>-0.19292155555555601</v>
+        <f t="shared" ref="E2:E28" si="1">D2/B2</f>
+        <v>-0.192921555555556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1342,11 +2042,11 @@
         <v>45000</v>
       </c>
       <c r="C3">
-        <v>36212.629999999997</v>
+        <v>36212.63</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-8787.3700000000008</v>
+        <v>-8787.37</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -1361,7 +2061,7 @@
         <v>45000</v>
       </c>
       <c r="C4">
-        <v>35497.730000000003</v>
+        <v>35497.73</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1369,7 +2069,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21116155555555599</v>
+        <v>-0.211161555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1388,7 +2088,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21051266666666699</v>
+        <v>-0.210512666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1403,11 +2103,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-9096.4699999999993</v>
+        <v>-9096.47</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20214377777777801</v>
+        <v>-0.202143777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1426,7 +2126,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20143711111111101</v>
+        <v>-0.201437111111111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1437,7 +2137,7 @@
         <v>45000</v>
       </c>
       <c r="C8">
-        <v>36052.730000000003</v>
+        <v>36052.73</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1445,7 +2145,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19882822222222199</v>
+        <v>-0.198828222222222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1460,7 +2160,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-8962.9699999999993</v>
+        <v>-8962.97</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
@@ -1475,7 +2175,7 @@
         <v>45000</v>
       </c>
       <c r="C10">
-        <v>36016.730000000003</v>
+        <v>36016.73</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1483,7 +2183,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19962822222222201</v>
+        <v>-0.199628222222222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1494,15 +2194,15 @@
         <v>45000</v>
       </c>
       <c r="C11">
-        <v>36215.129999999997</v>
+        <v>36215.13</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-8784.8700000000008</v>
+        <v>-8784.87</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19521933333333299</v>
+        <v>-0.195219333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1521,7 +2221,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19605711111111099</v>
+        <v>-0.196057111111111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1532,15 +2232,15 @@
         <v>45000</v>
       </c>
       <c r="C13">
-        <v>36070.629999999997</v>
+        <v>36070.63</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-8929.3700000000008</v>
+        <v>-8929.37</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19843044444444399</v>
+        <v>-0.198430444444444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1574,11 +2274,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-9012.9699999999993</v>
+        <v>-9012.97</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20028822222222201</v>
+        <v>-0.200288222222222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1597,7 +2297,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.17912854545454501</v>
+        <v>-0.179128545454545</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1646,7 +2346,7 @@
         <v>65000</v>
       </c>
       <c r="C19">
-        <v>52454.400000000001</v>
+        <v>52454.4</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1654,7 +2354,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19300923076923099</v>
+        <v>-0.193009230769231</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1673,7 +2373,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21822615384615399</v>
+        <v>-0.218226153846154</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1711,7 +2411,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20339384615384601</v>
+        <v>-0.203393846153846</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1730,7 +2430,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21876153846153801</v>
+        <v>-0.218761538461538</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1763,12 +2463,12 @@
         <v>52251</v>
       </c>
       <c r="D25">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>-12749</v>
       </c>
       <c r="E25" s="1">
-        <f>D25/B25</f>
-        <v>-0.19613846153846201</v>
+        <f t="shared" si="1"/>
+        <v>-0.196138461538462</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1782,12 +2482,12 @@
         <v>52233.8</v>
       </c>
       <c r="D26">
-        <f>C26-B26</f>
-        <v>-12766.199999999997</v>
+        <f t="shared" si="0"/>
+        <v>-12766.2</v>
       </c>
       <c r="E26" s="1">
-        <f>D26/B26</f>
-        <v>-0.19640307692307687</v>
+        <f t="shared" si="1"/>
+        <v>-0.196403076923077</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1801,12 +2501,12 @@
         <v>52871.5</v>
       </c>
       <c r="D27">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>-12128.5</v>
       </c>
       <c r="E27" s="1">
-        <f>D27/B27</f>
-        <v>-0.1865923076923077</v>
+        <f t="shared" si="1"/>
+        <v>-0.186592307692308</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1817,47 +2517,72 @@
         <v>65000</v>
       </c>
       <c r="C28">
-        <v>52903.199999999997</v>
+        <v>52903.2</v>
       </c>
       <c r="D28">
-        <f>C28-B28</f>
-        <v>-12096.800000000003</v>
+        <f t="shared" si="0"/>
+        <v>-12096.8</v>
       </c>
       <c r="E28" s="1">
-        <f>D28/B28</f>
-        <v>-0.18610461538461542</v>
+        <f t="shared" si="1"/>
+        <v>-0.186104615384615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>20180226</v>
+      </c>
+      <c r="B29">
+        <v>65000</v>
+      </c>
+      <c r="C29">
+        <v>53845.2</v>
+      </c>
+      <c r="D29">
+        <f>C29-B29</f>
+        <v>-11154.8</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/B29</f>
+        <v>-0.171612307692308</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,8 +39,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -54,6 +54,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,33 +113,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,22 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -174,9 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,19 +205,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,25 +253,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,48 +295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,13 +319,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,54 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,26 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,6 +453,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -504,142 +504,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -860,16 +860,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20180227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$29</c:f>
+              <c:f>Sheet1!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -877,7 +880,7 @@
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555555</c:v>
+                  <c:v>-0.211161555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.210512666666667</c:v>
@@ -953,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.171612307692308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.167833846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,10 +1126,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1207,16 +1213,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20180227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1299,6 +1308,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1325,10 +1337,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1412,16 +1424,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>20180226</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20180227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1505,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>53845.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54090.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2026,11 +2044,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D28" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D29" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E28" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E29" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2069,7 +2087,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555555</v>
+        <v>-0.211161555555556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2539,12 +2557,31 @@
         <v>53845.2</v>
       </c>
       <c r="D29">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>-11154.8</v>
       </c>
       <c r="E29" s="1">
-        <f>D29/B29</f>
+        <f t="shared" si="1"/>
         <v>-0.171612307692308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>20180227</v>
+      </c>
+      <c r="B30">
+        <v>65000</v>
+      </c>
+      <c r="C30">
+        <v>54090.8</v>
+      </c>
+      <c r="D30">
+        <f>C30-B30</f>
+        <v>-10909.2</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30/B30</f>
+        <v>-0.167833846153846</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -863,16 +863,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$30</c:f>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -880,7 +883,7 @@
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555556</c:v>
+                  <c:v>-0.211161555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.210512666666667</c:v>
@@ -959,6 +962,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.167833846153846</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.161767692307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1132,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1216,16 +1222,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1311,6 +1320,9 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1337,10 +1349,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1427,16 +1439,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>20180227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20180228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$30</c:f>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1523,6 +1538,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>54090.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54485.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,10 +2019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2044,11 +2062,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D29" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D30" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E29" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E30" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2087,7 +2105,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555556</v>
+        <v>-0.211161555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2576,12 +2594,31 @@
         <v>54090.8</v>
       </c>
       <c r="D30">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>-10909.2</v>
       </c>
       <c r="E30" s="1">
-        <f>D30/B30</f>
+        <f t="shared" si="1"/>
         <v>-0.167833846153846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>20180228</v>
+      </c>
+      <c r="B31">
+        <v>65000</v>
+      </c>
+      <c r="C31">
+        <v>54485.1</v>
+      </c>
+      <c r="D31">
+        <f>C31-B31</f>
+        <v>-10514.9</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31/B31</f>
+        <v>-0.161767692307692</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>日期Date</t>
   </si>
@@ -37,13 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,345 +46,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -398,251 +68,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,57 +82,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,21 +97,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -745,15 +115,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -768,15 +137,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -866,60 +232,63 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20180301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>Sheet1!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-0.192921555555556</c:v>
+                  <c:v>-0.19292155555555601</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555555</c:v>
+                  <c:v>-0.21116155555555499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.210512666666667</c:v>
+                  <c:v>-0.21051266666666699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.202143777777778</c:v>
+                  <c:v>-0.20214377777777801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.201437111111111</c:v>
+                  <c:v>-0.20143711111111101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.198828222222222</c:v>
+                  <c:v>-0.19882822222222199</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.199177111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.199628222222222</c:v>
+                  <c:v>-0.19962822222222201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.195219333333333</c:v>
+                  <c:v>-0.19521933333333299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.196057111111111</c:v>
+                  <c:v>-0.19605711111111099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.198430444444444</c:v>
+                  <c:v>-0.19843044444444399</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.197512666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.200288222222222</c:v>
+                  <c:v>-0.20028822222222201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.179128545454545</c:v>
+                  <c:v>-0.17912854545454501</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.181530769230769</c:v>
@@ -928,72 +297,63 @@
                   <c:v>-0.189030769230769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.193009230769231</c:v>
+                  <c:v>-0.19300923076923099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.218226153846154</c:v>
+                  <c:v>-0.21822615384615399</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.214512307692308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.203393846153846</c:v>
+                  <c:v>-0.20339384615384601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.218761538461538</c:v>
+                  <c:v>-0.21876153846153801</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.201258461538462</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.196138461538462</c:v>
+                  <c:v>-0.19613846153846201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.196403076923077</c:v>
+                  <c:v>-0.19640307692307701</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.186592307692308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.186104615384615</c:v>
+                  <c:v>-0.18610461538461501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.171612307692308</c:v>
+                  <c:v>-0.17161230769230801</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.167833846153846</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.161767692307692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.15407692307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="88237952"/>
-        <c:axId val="88239488"/>
+        <c:axId val="74724864"/>
+        <c:axId val="74726400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88237952"/>
+        <c:axId val="74724864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1009,26 +369,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88239488"/>
+        <c:crossAx val="74726400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88239488"/>
+        <c:axId val="74726400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1044,9 +401,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88237952"/>
+        <c:crossAx val="74724864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,7 +412,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -1069,12 +426,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1083,11 +440,12 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1095,24 +453,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -1127,15 +474,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1225,16 +569,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20180301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1323,12 +670,14 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>65000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1344,15 +693,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1442,24 +788,27 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>20180228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20180301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36212.63</c:v>
+                  <c:v>36212.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35497.73</c:v>
+                  <c:v>35497.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
@@ -1471,22 +820,22 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36052.73</c:v>
+                  <c:v>36052.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36037.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36016.73</c:v>
+                  <c:v>36016.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36215.13</c:v>
+                  <c:v>36215.129999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36070.63</c:v>
+                  <c:v>36070.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36111.93</c:v>
@@ -1504,7 +853,7 @@
                   <c:v>52713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52454.4</c:v>
+                  <c:v>52454.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50815.3</c:v>
@@ -1531,7 +880,7 @@
                   <c:v>52871.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52903.2</c:v>
+                  <c:v>52903.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>53845.2</c:v>
@@ -1541,35 +890,26 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>54485.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="78524800"/>
-        <c:axId val="78526336"/>
+        <c:axId val="74289152"/>
+        <c:axId val="74290688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78524800"/>
+        <c:axId val="74289152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1585,26 +925,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78526336"/>
+        <c:crossAx val="74290688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78526336"/>
+        <c:axId val="74290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1620,9 +957,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78524800"/>
+        <c:crossAx val="74289152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,7 +968,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -1645,12 +982,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1659,18 +996,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1684,14 +1022,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7333615" y="2352675"/>
-        <a:ext cx="7058025" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1714,14 +1052,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7324725" y="9525"/>
-        <a:ext cx="7086600" cy="2228850"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2013,19 +1351,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -2063,11 +1401,11 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D30" si="0">C2-B2</f>
-        <v>-8681.47</v>
+        <v>-8681.4699999999993</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E30" si="1">D2/B2</f>
-        <v>-0.192921555555556</v>
+        <v>-0.19292155555555601</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2078,11 +1416,11 @@
         <v>45000</v>
       </c>
       <c r="C3">
-        <v>36212.63</v>
+        <v>36212.629999999997</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-8787.37</v>
+        <v>-8787.3700000000008</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -2097,7 +1435,7 @@
         <v>45000</v>
       </c>
       <c r="C4">
-        <v>35497.73</v>
+        <v>35497.730000000003</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -2105,7 +1443,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555555</v>
+        <v>-0.21116155555555499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2124,7 +1462,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.210512666666667</v>
+        <v>-0.21051266666666699</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2139,11 +1477,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-9096.47</v>
+        <v>-9096.4699999999993</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.202143777777778</v>
+        <v>-0.20214377777777801</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2162,7 +1500,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.201437111111111</v>
+        <v>-0.20143711111111101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2173,7 +1511,7 @@
         <v>45000</v>
       </c>
       <c r="C8">
-        <v>36052.73</v>
+        <v>36052.730000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2181,7 +1519,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.198828222222222</v>
+        <v>-0.19882822222222199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2196,7 +1534,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-8962.97</v>
+        <v>-8962.9699999999993</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
@@ -2211,7 +1549,7 @@
         <v>45000</v>
       </c>
       <c r="C10">
-        <v>36016.73</v>
+        <v>36016.730000000003</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2219,7 +1557,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.199628222222222</v>
+        <v>-0.19962822222222201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2230,15 +1568,15 @@
         <v>45000</v>
       </c>
       <c r="C11">
-        <v>36215.13</v>
+        <v>36215.129999999997</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-8784.87</v>
+        <v>-8784.8700000000008</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.195219333333333</v>
+        <v>-0.19521933333333299</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2257,7 +1595,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.196057111111111</v>
+        <v>-0.19605711111111099</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2268,15 +1606,15 @@
         <v>45000</v>
       </c>
       <c r="C13">
-        <v>36070.63</v>
+        <v>36070.629999999997</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-8929.37</v>
+        <v>-8929.3700000000008</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.198430444444444</v>
+        <v>-0.19843044444444399</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2310,11 +1648,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-9012.97</v>
+        <v>-9012.9699999999993</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.200288222222222</v>
+        <v>-0.20028822222222201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2333,7 +1671,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.179128545454545</v>
+        <v>-0.17912854545454501</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2382,7 +1720,7 @@
         <v>65000</v>
       </c>
       <c r="C19">
-        <v>52454.4</v>
+        <v>52454.400000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2390,7 +1728,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>-0.193009230769231</v>
+        <v>-0.19300923076923099</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2409,7 +1747,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.218226153846154</v>
+        <v>-0.21822615384615399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2447,7 +1785,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.203393846153846</v>
+        <v>-0.20339384615384601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2466,7 +1804,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.218761538461538</v>
+        <v>-0.21876153846153801</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2504,7 +1842,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>-0.196138461538462</v>
+        <v>-0.19613846153846201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2523,7 +1861,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>-0.196403076923077</v>
+        <v>-0.19640307692307701</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2553,7 +1891,7 @@
         <v>65000</v>
       </c>
       <c r="C28">
-        <v>52903.2</v>
+        <v>52903.199999999997</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -2561,7 +1899,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>-0.186104615384615</v>
+        <v>-0.18610461538461501</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2580,7 +1918,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>-0.171612307692308</v>
+        <v>-0.17161230769230801</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2621,42 +1959,55 @@
         <v>-0.161767692307692</v>
       </c>
     </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>20180301</v>
+      </c>
+      <c r="B32">
+        <v>65000</v>
+      </c>
+      <c r="C32">
+        <v>54985</v>
+      </c>
+      <c r="D32">
+        <f>C32-B32</f>
+        <v>-10015</v>
+      </c>
+      <c r="E32" s="1">
+        <f>D32/B32</f>
+        <v>-0.15407692307692308</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -139,10 +139,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -235,16 +235,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20180302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$32</c:f>
+              <c:f>Sheet1!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-0.19292155555555601</c:v>
                 </c:pt>
@@ -337,18 +340,20 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.15407692307692308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14917842857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="74724864"/>
-        <c:axId val="74726400"/>
+        <c:axId val="77884032"/>
+        <c:axId val="77910400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74724864"/>
+        <c:axId val="77884032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,14 +377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74726400"/>
+        <c:crossAx val="77910400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74726400"/>
+        <c:axId val="77910400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74724864"/>
+        <c:crossAx val="77884032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +450,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -476,10 +481,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -572,16 +577,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20180302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -674,6 +682,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,10 +706,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -791,16 +802,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>20180301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20180302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -893,18 +907,20 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>54985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59557.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="74289152"/>
-        <c:axId val="74290688"/>
+        <c:axId val="78464512"/>
+        <c:axId val="78466048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74289152"/>
+        <c:axId val="78464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,14 +944,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74290688"/>
+        <c:crossAx val="78466048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74290688"/>
+        <c:axId val="78466048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74289152"/>
+        <c:crossAx val="78464512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1357,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1976,6 +1992,25 @@
       <c r="E32" s="1">
         <f>D32/B32</f>
         <v>-0.15407692307692308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>20180302</v>
+      </c>
+      <c r="B33">
+        <v>70000</v>
+      </c>
+      <c r="C33">
+        <v>59557.51</v>
+      </c>
+      <c r="D33">
+        <f>C33-B33</f>
+        <v>-10442.489999999998</v>
+      </c>
+      <c r="E33" s="1">
+        <f>D33/B33</f>
+        <v>-0.14917842857142855</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>日期Date</t>
   </si>
@@ -37,7 +37,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,21 +52,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,9 +398,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -82,10 +654,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,10 +716,21 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -115,14 +745,15 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -137,12 +768,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -238,60 +872,63 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20180305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$33</c:f>
+              <c:f>Sheet1!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-0.19292155555555601</c:v>
+                  <c:v>-0.192921555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21116155555555499</c:v>
+                  <c:v>-0.211161555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.21051266666666699</c:v>
+                  <c:v>-0.210512666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20214377777777801</c:v>
+                  <c:v>-0.202143777777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20143711111111101</c:v>
+                  <c:v>-0.201437111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19882822222222199</c:v>
+                  <c:v>-0.198828222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.199177111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.19962822222222201</c:v>
+                  <c:v>-0.199628222222222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19521933333333299</c:v>
+                  <c:v>-0.195219333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.19605711111111099</c:v>
+                  <c:v>-0.196057111111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.19843044444444399</c:v>
+                  <c:v>-0.198430444444444</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.197512666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.20028822222222201</c:v>
+                  <c:v>-0.200288222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.17912854545454501</c:v>
+                  <c:v>-0.179128545454545</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-0.181530769230769</c:v>
@@ -300,37 +937,37 @@
                   <c:v>-0.189030769230769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19300923076923099</c:v>
+                  <c:v>-0.193009230769231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.21822615384615399</c:v>
+                  <c:v>-0.218226153846154</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.214512307692308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.20339384615384601</c:v>
+                  <c:v>-0.203393846153846</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.21876153846153801</c:v>
+                  <c:v>-0.218761538461538</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.201258461538462</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.19613846153846201</c:v>
+                  <c:v>-0.196138461538462</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.19640307692307701</c:v>
+                  <c:v>-0.196403076923077</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.186592307692308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.18610461538461501</c:v>
+                  <c:v>-0.186104615384615</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.17161230769230801</c:v>
+                  <c:v>-0.171612307692308</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.167833846153846</c:v>
@@ -339,16 +976,29 @@
                   <c:v>-0.161767692307692</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.15407692307692308</c:v>
+                  <c:v>-0.154076923076923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.14917842857142855</c:v>
+                  <c:v>-0.149178428571429</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.144698428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="77884032"/>
         <c:axId val="77910400"/>
       </c:lineChart>
@@ -357,8 +1007,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -374,7 +1027,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77910400"/>
@@ -382,15 +1034,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="77910400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -406,7 +1062,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77884032"/>
@@ -417,6 +1072,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -431,12 +1087,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -445,12 +1101,11 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -458,13 +1113,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -479,12 +1145,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -580,16 +1249,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20180305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -684,11 +1356,15 @@
                   <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -704,12 +1380,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -805,24 +1484,27 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20180302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20180305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$33</c:f>
+              <c:f>Sheet1!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36212.629999999997</c:v>
+                  <c:v>36212.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35497.730000000003</c:v>
+                  <c:v>35497.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35526.93</c:v>
@@ -834,22 +1516,22 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36052.730000000003</c:v>
+                  <c:v>36052.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>36037.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36016.730000000003</c:v>
+                  <c:v>36016.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36215.129999999997</c:v>
+                  <c:v>36215.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36070.629999999997</c:v>
+                  <c:v>36070.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36111.93</c:v>
@@ -867,7 +1549,7 @@
                   <c:v>52713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52454.400000000001</c:v>
+                  <c:v>52454.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50815.3</c:v>
@@ -894,7 +1576,7 @@
                   <c:v>52871.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52903.199999999997</c:v>
+                  <c:v>52903.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>53845.2</c:v>
@@ -910,12 +1592,25 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>59557.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59871.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="78464512"/>
         <c:axId val="78466048"/>
       </c:lineChart>
@@ -924,8 +1619,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -941,7 +1639,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="78466048"/>
@@ -949,15 +1646,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="78466048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -973,7 +1674,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="78464512"/>
@@ -984,6 +1684,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -998,12 +1699,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1012,19 +1713,18 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1038,14 +1738,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7333615" y="2352675"/>
+        <a:ext cx="7058025" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1068,14 +1768,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7324725" y="9525"/>
+        <a:ext cx="7086600" cy="2228850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1367,19 +2067,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1416,12 +2116,12 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D30" si="0">C2-B2</f>
-        <v>-8681.4699999999993</v>
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
+        <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E30" si="1">D2/B2</f>
-        <v>-0.19292155555555601</v>
+        <f t="shared" ref="E2:E33" si="1">D2/B2</f>
+        <v>-0.192921555555556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1432,11 +2132,11 @@
         <v>45000</v>
       </c>
       <c r="C3">
-        <v>36212.629999999997</v>
+        <v>36212.63</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-8787.3700000000008</v>
+        <v>-8787.37</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
@@ -1451,7 +2151,7 @@
         <v>45000</v>
       </c>
       <c r="C4">
-        <v>35497.730000000003</v>
+        <v>35497.73</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1459,7 +2159,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21116155555555499</v>
+        <v>-0.211161555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1478,7 +2178,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21051266666666699</v>
+        <v>-0.210512666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1493,11 +2193,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-9096.4699999999993</v>
+        <v>-9096.47</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20214377777777801</v>
+        <v>-0.202143777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1516,7 +2216,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20143711111111101</v>
+        <v>-0.201437111111111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1527,7 +2227,7 @@
         <v>45000</v>
       </c>
       <c r="C8">
-        <v>36052.730000000003</v>
+        <v>36052.73</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1535,7 +2235,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19882822222222199</v>
+        <v>-0.198828222222222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1550,7 +2250,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-8962.9699999999993</v>
+        <v>-8962.97</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
@@ -1565,7 +2265,7 @@
         <v>45000</v>
       </c>
       <c r="C10">
-        <v>36016.730000000003</v>
+        <v>36016.73</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1573,7 +2273,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19962822222222201</v>
+        <v>-0.199628222222222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1584,15 +2284,15 @@
         <v>45000</v>
       </c>
       <c r="C11">
-        <v>36215.129999999997</v>
+        <v>36215.13</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-8784.8700000000008</v>
+        <v>-8784.87</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19521933333333299</v>
+        <v>-0.195219333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1611,7 +2311,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19605711111111099</v>
+        <v>-0.196057111111111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1622,15 +2322,15 @@
         <v>45000</v>
       </c>
       <c r="C13">
-        <v>36070.629999999997</v>
+        <v>36070.63</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-8929.3700000000008</v>
+        <v>-8929.37</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19843044444444399</v>
+        <v>-0.198430444444444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1664,11 +2364,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-9012.9699999999993</v>
+        <v>-9012.97</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20028822222222201</v>
+        <v>-0.200288222222222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1687,7 +2387,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-0.17912854545454501</v>
+        <v>-0.179128545454545</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1736,7 +2436,7 @@
         <v>65000</v>
       </c>
       <c r="C19">
-        <v>52454.400000000001</v>
+        <v>52454.4</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1744,7 +2444,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19300923076923099</v>
+        <v>-0.193009230769231</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1763,7 +2463,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21822615384615399</v>
+        <v>-0.218226153846154</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1801,7 +2501,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>-0.20339384615384601</v>
+        <v>-0.203393846153846</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1820,7 +2520,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21876153846153801</v>
+        <v>-0.218761538461538</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1858,7 +2558,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19613846153846201</v>
+        <v>-0.196138461538462</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1877,7 +2577,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19640307692307701</v>
+        <v>-0.196403076923077</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1907,7 +2607,7 @@
         <v>65000</v>
       </c>
       <c r="C28">
-        <v>52903.199999999997</v>
+        <v>52903.2</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1915,7 +2615,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>-0.18610461538461501</v>
+        <v>-0.186104615384615</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1934,7 +2634,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>-0.17161230769230801</v>
+        <v>-0.171612307692308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1967,11 +2667,11 @@
         <v>54485.1</v>
       </c>
       <c r="D31">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>-10514.9</v>
       </c>
       <c r="E31" s="1">
-        <f>D31/B31</f>
+        <f t="shared" si="1"/>
         <v>-0.161767692307692</v>
       </c>
     </row>
@@ -1986,12 +2686,12 @@
         <v>54985</v>
       </c>
       <c r="D32">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>-10015</v>
       </c>
       <c r="E32" s="1">
-        <f>D32/B32</f>
-        <v>-0.15407692307692308</v>
+        <f t="shared" si="1"/>
+        <v>-0.154076923076923</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2005,44 +2705,69 @@
         <v>59557.51</v>
       </c>
       <c r="D33">
-        <f>C33-B33</f>
-        <v>-10442.489999999998</v>
+        <f t="shared" si="0"/>
+        <v>-10442.49</v>
       </c>
       <c r="E33" s="1">
-        <f>D33/B33</f>
-        <v>-0.14917842857142855</v>
+        <f t="shared" si="1"/>
+        <v>-0.149178428571429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>20180305</v>
+      </c>
+      <c r="B34">
+        <v>70000</v>
+      </c>
+      <c r="C34">
+        <v>59871.11</v>
+      </c>
+      <c r="D34">
+        <f>C34-B34</f>
+        <v>-10128.89</v>
+      </c>
+      <c r="E34" s="1">
+        <f>D34/B34</f>
+        <v>-0.144698428571429</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,8 +39,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -52,10 +52,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,29 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -104,8 +82,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,30 +113,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,17 +168,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,8 +402,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +419,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,45 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,10 +773,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -875,16 +875,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20180306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$34</c:f>
+              <c:f>Sheet1!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -892,7 +895,7 @@
                   <c:v>-0.195274888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.211161555555555</c:v>
+                  <c:v>-0.211161555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.210512666666667</c:v>
@@ -983,6 +986,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.144698428571429</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.140769857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,10 +1156,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1252,16 +1258,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20180306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1359,6 +1368,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1385,10 +1397,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1487,16 +1499,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>20180305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20180306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:f>Sheet1!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1595,6 +1610,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>59871.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60146.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,10 +2091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2116,11 +2134,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D34" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E33" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E34" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2159,7 +2177,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>-0.211161555555555</v>
+        <v>-0.211161555555556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2724,12 +2742,31 @@
         <v>59871.11</v>
       </c>
       <c r="D34">
-        <f>C34-B34</f>
+        <f t="shared" si="0"/>
         <v>-10128.89</v>
       </c>
       <c r="E34" s="1">
-        <f>D34/B34</f>
+        <f t="shared" si="1"/>
         <v>-0.144698428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>20180306</v>
+      </c>
+      <c r="B35">
+        <v>70000</v>
+      </c>
+      <c r="C35">
+        <v>60146.11</v>
+      </c>
+      <c r="D35">
+        <f>C35-B35</f>
+        <v>-9853.89</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35/B35</f>
+        <v>-0.140769857142857</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,16 +52,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,29 +83,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,14 +93,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +113,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,48 +189,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,31 +205,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +307,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,139 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,11 +399,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,23 +447,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,37 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,7 +750,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0834008097165992"/>
+          <c:y val="0.203240740740741"/>
+          <c:w val="0.651461988304094"/>
+          <c:h val="0.749074074074074"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -768,15 +778,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -878,16 +891,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20180307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$35</c:f>
+              <c:f>Sheet1!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -989,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.140769857142857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.156801285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1022,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="77884032"/>
         <c:axId val="77910400"/>
@@ -1151,15 +1170,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1261,16 +1283,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20180307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1371,6 +1396,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1392,15 +1420,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1502,16 +1533,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>20180306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20180307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$35</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1613,6 +1647,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>60146.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59023.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,7 +1664,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="78464512"/>
         <c:axId val="78466048"/>
@@ -2091,10 +2128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2134,11 +2171,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D34" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D35" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E34" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E35" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2761,12 +2798,31 @@
         <v>60146.11</v>
       </c>
       <c r="D35">
-        <f>C35-B35</f>
+        <f t="shared" si="0"/>
         <v>-9853.89</v>
       </c>
       <c r="E35" s="1">
-        <f>D35/B35</f>
+        <f t="shared" si="1"/>
         <v>-0.140769857142857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>20180307</v>
+      </c>
+      <c r="B36">
+        <v>70000</v>
+      </c>
+      <c r="C36">
+        <v>59023.91</v>
+      </c>
+      <c r="D36">
+        <f>C36-B36</f>
+        <v>-10976.09</v>
+      </c>
+      <c r="E36" s="1">
+        <f>D36/B36</f>
+        <v>-0.156801285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,7 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,14 +61,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,6 +74,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -90,23 +98,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,7 +119,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,55 +175,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +188,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,13 +205,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,19 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,139 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,74 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,130 +519,130 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -894,16 +894,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1008,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.156801285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.159478428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,10 +1184,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1286,16 +1292,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1399,6 +1408,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1428,10 +1440,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1536,16 +1548,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>20180307</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20180308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1650,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>59023.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58836.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,10 +2146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2171,11 +2189,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D35" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D36" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E35" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E36" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2817,12 +2835,31 @@
         <v>59023.91</v>
       </c>
       <c r="D36">
-        <f>C36-B36</f>
+        <f t="shared" si="0"/>
         <v>-10976.09</v>
       </c>
       <c r="E36" s="1">
-        <f>D36/B36</f>
+        <f t="shared" si="1"/>
         <v>-0.156801285714286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>20180308</v>
+      </c>
+      <c r="B37">
+        <v>70000</v>
+      </c>
+      <c r="C37">
+        <v>58836.51</v>
+      </c>
+      <c r="D37">
+        <f>C37-B37</f>
+        <v>-11163.49</v>
+      </c>
+      <c r="E37" s="1">
+        <f>D37/B37</f>
+        <v>-0.159478428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,13 +49,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +111,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -125,25 +126,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +179,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,6 +205,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,67 +289,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,96 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,26 +419,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +476,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -897,16 +897,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1014,6 +1017,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.159478428571429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.146249857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,10 +1190,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1295,16 +1301,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1411,6 +1420,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1440,10 +1452,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1551,16 +1563,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20180308</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20180309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:f>Sheet1!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1668,6 +1683,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>58836.51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59762.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,10 +2164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2189,11 +2207,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D36" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D37" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E36" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E37" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2854,12 +2872,31 @@
         <v>58836.51</v>
       </c>
       <c r="D37">
-        <f>C37-B37</f>
+        <f t="shared" si="0"/>
         <v>-11163.49</v>
       </c>
       <c r="E37" s="1">
-        <f>D37/B37</f>
+        <f t="shared" si="1"/>
         <v>-0.159478428571429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>20180309</v>
+      </c>
+      <c r="B38">
+        <v>70000</v>
+      </c>
+      <c r="C38">
+        <v>59762.51</v>
+      </c>
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>-10237.49</v>
+      </c>
+      <c r="E38" s="1">
+        <f>D38/B38</f>
+        <v>-0.146249857142857</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,113 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,11 +74,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +132,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,8 +402,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,30 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -900,16 +900,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:f>Sheet1!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1020,6 +1023,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.146249857142857</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.140695571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,10 +1196,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1304,16 +1310,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1423,6 +1432,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1452,10 +1464,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1566,16 +1578,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>20180309</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20180312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>Sheet1!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1686,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>59762.51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60151.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,10 +2182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2207,11 +2225,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D37" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D38" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E37" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E38" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2891,12 +2909,31 @@
         <v>59762.51</v>
       </c>
       <c r="D38">
-        <f>C38-B38</f>
+        <f t="shared" si="0"/>
         <v>-10237.49</v>
       </c>
       <c r="E38" s="1">
-        <f>D38/B38</f>
+        <f t="shared" si="1"/>
         <v>-0.146249857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20180312</v>
+      </c>
+      <c r="B39">
+        <v>70000</v>
+      </c>
+      <c r="C39">
+        <v>60151.31</v>
+      </c>
+      <c r="D39">
+        <f>C39-B39</f>
+        <v>-9848.69</v>
+      </c>
+      <c r="E39" s="1">
+        <f>D39/B39</f>
+        <v>-0.140695571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,9 +38,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -53,7 +53,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,74 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,46 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,6 +202,108 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,19 +313,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,36 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,109 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,11 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,8 +417,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +434,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,21 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,11 +490,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -903,16 +903,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$39</c:f>
+              <c:f>Sheet1!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1026,6 +1029,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-0.140695571428571</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.142581285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,10 +1202,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1313,16 +1319,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1435,6 +1444,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1464,10 +1476,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1581,16 +1593,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20180312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20180313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$39</c:f>
+              <c:f>Sheet1!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1704,6 +1719,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>60151.31</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60019.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,10 +2200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2225,11 +2243,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D38" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D39" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E38" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E39" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2928,12 +2946,31 @@
         <v>60151.31</v>
       </c>
       <c r="D39">
-        <f>C39-B39</f>
+        <f t="shared" si="0"/>
         <v>-9848.69</v>
       </c>
       <c r="E39" s="1">
-        <f>D39/B39</f>
+        <f t="shared" si="1"/>
         <v>-0.140695571428571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>20180313</v>
+      </c>
+      <c r="B40">
+        <v>70000</v>
+      </c>
+      <c r="C40">
+        <v>60019.31</v>
+      </c>
+      <c r="D40">
+        <f>C40-B40</f>
+        <v>-9980.69</v>
+      </c>
+      <c r="E40" s="1">
+        <f>D40/B40</f>
+        <v>-0.142581285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,9 +38,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -54,6 +54,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,29 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,7 +205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,12 +295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,36 +343,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,6 +374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,15 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -906,16 +906,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$40</c:f>
+              <c:f>Sheet1!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1032,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.142581285714286</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.148084142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,10 +1208,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1322,16 +1328,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1447,6 +1456,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1476,10 +1488,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1596,16 +1608,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20180313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20180314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$40</c:f>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1722,6 +1737,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>60019.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59634.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,10 +2218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2243,11 +2261,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D39" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D40" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E39" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E40" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -2965,12 +2983,31 @@
         <v>60019.31</v>
       </c>
       <c r="D40">
-        <f>C40-B40</f>
+        <f t="shared" si="0"/>
         <v>-9980.69</v>
       </c>
       <c r="E40" s="1">
-        <f>D40/B40</f>
+        <f t="shared" si="1"/>
         <v>-0.142581285714286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>20180314</v>
+      </c>
+      <c r="B41">
+        <v>70000</v>
+      </c>
+      <c r="C41">
+        <v>59634.11</v>
+      </c>
+      <c r="D41">
+        <f>C41-B41</f>
+        <v>-10365.89</v>
+      </c>
+      <c r="E41" s="1">
+        <f>D41/B41</f>
+        <v>-0.148084142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,6 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,6 +301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,18 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -909,16 +909,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$41</c:f>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1038,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.148084142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.153787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,10 +1214,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1331,16 +1337,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1459,6 +1468,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1488,10 +1500,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1611,16 +1623,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>20180314</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20180315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1740,6 +1755,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>59634.11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59234.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2261,11 +2279,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D40" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D41" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E40" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E41" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3002,12 +3020,31 @@
         <v>59634.11</v>
       </c>
       <c r="D41">
-        <f>C41-B41</f>
+        <f t="shared" si="0"/>
         <v>-10365.89</v>
       </c>
       <c r="E41" s="1">
-        <f>D41/B41</f>
+        <f t="shared" si="1"/>
         <v>-0.148084142857143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>20180315</v>
+      </c>
+      <c r="B42">
+        <v>70000</v>
+      </c>
+      <c r="C42">
+        <v>59234.91</v>
+      </c>
+      <c r="D42">
+        <f>C42-B42</f>
+        <v>-10765.09</v>
+      </c>
+      <c r="E42" s="1">
+        <f>D42/B42</f>
+        <v>-0.153787</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -912,16 +912,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1044,6 +1047,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-0.153787</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.155391285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,10 +1220,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1340,16 +1346,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1471,6 +1480,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1500,10 +1512,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1626,16 +1638,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20180315</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20180316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1758,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>59234.91</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59122.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,10 +2254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2279,11 +2297,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D41" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D42" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E41" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E42" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3039,12 +3057,31 @@
         <v>59234.91</v>
       </c>
       <c r="D42">
-        <f>C42-B42</f>
+        <f t="shared" si="0"/>
         <v>-10765.09</v>
       </c>
       <c r="E42" s="1">
-        <f>D42/B42</f>
+        <f t="shared" si="1"/>
         <v>-0.153787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>20180316</v>
+      </c>
+      <c r="B43">
+        <v>70000</v>
+      </c>
+      <c r="C43">
+        <v>59122.61</v>
+      </c>
+      <c r="D43">
+        <f>C43-B43</f>
+        <v>-10877.39</v>
+      </c>
+      <c r="E43" s="1">
+        <f>D43/B43</f>
+        <v>-0.155391285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -915,16 +915,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$43</c:f>
+              <c:f>Sheet1!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1050,6 +1053,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.155391285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.151759857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,10 +1226,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1349,16 +1355,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$43</c:f>
+              <c:f>Sheet1!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1483,6 +1492,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1512,10 +1524,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1641,16 +1653,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>20180316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20180319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$43</c:f>
+              <c:f>Sheet1!$C$2:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1776,6 +1791,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>59122.61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59376.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,7 +1944,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7333615" y="2352675"/>
-        <a:ext cx="7058025" cy="2743200"/>
+        <a:ext cx="7086600" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1956,7 +1974,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7324725" y="9525"/>
-        <a:ext cx="7086600" cy="2228850"/>
+        <a:ext cx="7115175" cy="2228850"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2254,9 +2272,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -2267,6 +2285,7 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2297,11 +2316,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D42" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D43" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E42" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E43" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3076,12 +3095,31 @@
         <v>59122.61</v>
       </c>
       <c r="D43">
-        <f>C43-B43</f>
+        <f t="shared" si="0"/>
         <v>-10877.39</v>
       </c>
       <c r="E43" s="1">
-        <f>D43/B43</f>
+        <f t="shared" si="1"/>
         <v>-0.155391285714286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>20180319</v>
+      </c>
+      <c r="B44">
+        <v>70000</v>
+      </c>
+      <c r="C44">
+        <v>59376.81</v>
+      </c>
+      <c r="D44">
+        <f>C44-B44</f>
+        <v>-10623.19</v>
+      </c>
+      <c r="E44" s="1">
+        <f>D44/B44</f>
+        <v>-0.151759857142857</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,38 +38,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -82,32 +59,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,7 +83,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,62 +189,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,13 +205,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,103 +271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +289,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,45 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,26 +410,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +437,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -918,16 +918,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>20180319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$44</c:f>
+              <c:f>Sheet1!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1056,6 +1059,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-0.151759857142857</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.147885142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,10 +1232,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1358,16 +1364,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>20180319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$44</c:f>
+              <c:f>Sheet1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1495,6 +1504,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,10 +1536,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1656,16 +1668,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>20180319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20180320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$44</c:f>
+              <c:f>Sheet1!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1794,6 +1809,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>59376.81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>59648.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,10 +2290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2316,11 +2334,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D43" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D45" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E43" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E45" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3114,12 +3132,41 @@
         <v>59376.81</v>
       </c>
       <c r="D44">
-        <f>C44-B44</f>
+        <f t="shared" si="0"/>
         <v>-10623.19</v>
       </c>
       <c r="E44" s="1">
-        <f>D44/B44</f>
+        <f t="shared" si="1"/>
         <v>-0.151759857142857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>20180320</v>
+      </c>
+      <c r="B45">
+        <v>70000</v>
+      </c>
+      <c r="C45">
+        <v>59648.04</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-10351.96</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.147885142857143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,15 +38,81 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -60,6 +126,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -67,35 +149,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -112,87 +190,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,31 +205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +247,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,31 +337,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,97 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,19 +417,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,25 +468,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -921,16 +921,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$45</c:f>
+              <c:f>Sheet1!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1062,6 +1065,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-0.147885142857143</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.155162285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,10 +1238,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1367,16 +1373,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1507,6 +1516,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1536,10 +1548,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1671,16 +1683,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20180320</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20180321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$45</c:f>
+              <c:f>Sheet1!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1812,6 +1827,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>59648.04</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59138.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,8 +2310,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3159,9 +3177,23 @@
         <v>-0.147885142857143</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>20180321</v>
+      </c>
       <c r="B46">
         <v>70000</v>
+      </c>
+      <c r="C46">
+        <v>59138.64</v>
+      </c>
+      <c r="D46">
+        <f>C46-B46</f>
+        <v>-10861.36</v>
+      </c>
+      <c r="E46" s="1">
+        <f>D46/B46</f>
+        <v>-0.155162285714286</v>
       </c>
     </row>
     <row r="47" spans="2:2">

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,64 +49,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,9 +69,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +107,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,6 +165,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -183,14 +182,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,25 +205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,18 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,12 +248,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,49 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,6 +283,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,13 +349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,38 +465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,15 +488,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -924,16 +924,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>20180321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$46</c:f>
+              <c:f>Sheet1!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1068,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.155162285714286</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.153729428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,10 +1244,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1376,16 +1382,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>20180321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$46</c:f>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1519,6 +1528,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1548,10 +1560,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1686,16 +1698,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>20180321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20180322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$46</c:f>
+              <c:f>Sheet1!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1830,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>59138.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59238.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2352,11 +2370,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D45" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D46" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E45" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E46" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3188,17 +3206,31 @@
         <v>59138.64</v>
       </c>
       <c r="D46">
-        <f>C46-B46</f>
+        <f t="shared" si="0"/>
         <v>-10861.36</v>
       </c>
       <c r="E46" s="1">
-        <f>D46/B46</f>
+        <f t="shared" si="1"/>
         <v>-0.155162285714286</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>20180322</v>
+      </c>
       <c r="B47">
         <v>70000</v>
+      </c>
+      <c r="C47">
+        <v>59238.94</v>
+      </c>
+      <c r="D47">
+        <f>C47-B47</f>
+        <v>-10761.06</v>
+      </c>
+      <c r="E47" s="1">
+        <f>D47/B47</f>
+        <v>-0.153729428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +49,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,6 +77,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,9 +138,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +161,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,51 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,22 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,19 +205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,19 +253,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,6 +331,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,72 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,6 +455,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -470,32 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -927,16 +927,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>20180322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$47</c:f>
+              <c:f>Sheet1!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1074,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.153729428571429</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.201829428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,10 +1250,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1385,16 +1391,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>20180322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:f>Sheet1!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1531,6 +1540,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1560,10 +1572,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1701,16 +1713,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>20180322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20180323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$47</c:f>
+              <c:f>Sheet1!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1848,6 +1863,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>59238.94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55871.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,10 +2344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2370,11 +2388,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D46" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D47" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E46" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E47" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3225,12 +3243,31 @@
         <v>59238.94</v>
       </c>
       <c r="D47">
-        <f>C47-B47</f>
+        <f t="shared" si="0"/>
         <v>-10761.06</v>
       </c>
       <c r="E47" s="1">
-        <f>D47/B47</f>
+        <f t="shared" si="1"/>
         <v>-0.153729428571429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>20180323</v>
+      </c>
+      <c r="B48">
+        <v>70000</v>
+      </c>
+      <c r="C48">
+        <v>55871.94</v>
+      </c>
+      <c r="D48">
+        <f>C48-B48</f>
+        <v>-14128.06</v>
+      </c>
+      <c r="E48" s="1">
+        <f>D48/B48</f>
+        <v>-0.201829428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,29 +54,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +113,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,27 +176,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,36 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -284,18 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,6 +313,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,16 +399,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -424,21 +424,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -449,6 +434,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -930,16 +930,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$48</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1080,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-0.201829428571429</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.190833714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,10 +1256,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1394,16 +1400,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$48</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1543,6 +1552,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1572,10 +1584,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1716,16 +1728,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>20180323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20180326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$48</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1866,6 +1881,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>55871.94</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56641.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,10 +2362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2388,11 +2406,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D47" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D48" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E47" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E48" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3262,12 +3280,31 @@
         <v>55871.94</v>
       </c>
       <c r="D48">
-        <f>C48-B48</f>
+        <f t="shared" si="0"/>
         <v>-14128.06</v>
       </c>
       <c r="E48" s="1">
-        <f>D48/B48</f>
+        <f t="shared" si="1"/>
         <v>-0.201829428571429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>20180326</v>
+      </c>
+      <c r="B49">
+        <v>70000</v>
+      </c>
+      <c r="C49">
+        <v>56641.64</v>
+      </c>
+      <c r="D49">
+        <f>C49-B49</f>
+        <v>-13358.36</v>
+      </c>
+      <c r="E49" s="1">
+        <f>D49/B49</f>
+        <v>-0.190833714285714</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,7 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +152,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,13 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -205,13 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,25 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +235,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +307,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,18 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,42 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -933,16 +933,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>20180326</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1086,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-0.190833714285714</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.178396571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,10 +1262,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1403,16 +1409,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>20180326</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$49</c:f>
+              <c:f>Sheet1!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1555,6 +1564,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1584,10 +1596,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1731,16 +1743,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>20180326</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20180327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$49</c:f>
+              <c:f>Sheet1!$C$2:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1884,6 +1899,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>56641.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57512.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,10 +2380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2406,11 +2424,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D48" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D49" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E48" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E49" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3299,12 +3317,31 @@
         <v>56641.64</v>
       </c>
       <c r="D49">
-        <f>C49-B49</f>
+        <f t="shared" si="0"/>
         <v>-13358.36</v>
       </c>
       <c r="E49" s="1">
-        <f>D49/B49</f>
+        <f t="shared" si="1"/>
         <v>-0.190833714285714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>20180327</v>
+      </c>
+      <c r="B50">
+        <v>70000</v>
+      </c>
+      <c r="C50">
+        <v>57512.24</v>
+      </c>
+      <c r="D50">
+        <f>C50-B50</f>
+        <v>-12487.76</v>
+      </c>
+      <c r="E50" s="1">
+        <f>D50/B50</f>
+        <v>-0.178396571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -53,7 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,22 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -128,7 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +136,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +167,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,60 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,19 +217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,55 +253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,6 +295,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,6 +317,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -396,45 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,8 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +457,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,19 +516,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,112 +537,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -936,16 +936,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>20180327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$50</c:f>
+              <c:f>Sheet1!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1092,6 +1095,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.178396571428571</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.193991142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,10 +1268,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1412,16 +1418,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>20180327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$50</c:f>
+              <c:f>Sheet1!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1567,6 +1576,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1596,10 +1608,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1746,16 +1758,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>20180327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20180328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$50</c:f>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1902,6 +1917,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>57512.24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56420.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,10 +2398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2424,11 +2442,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D49" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D50" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E49" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E50" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3336,12 +3354,31 @@
         <v>57512.24</v>
       </c>
       <c r="D50">
-        <f>C50-B50</f>
+        <f t="shared" si="0"/>
         <v>-12487.76</v>
       </c>
       <c r="E50" s="1">
-        <f>D50/B50</f>
+        <f t="shared" si="1"/>
         <v>-0.178396571428571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>20180328</v>
+      </c>
+      <c r="B51">
+        <v>70000</v>
+      </c>
+      <c r="C51">
+        <v>56420.62</v>
+      </c>
+      <c r="D51">
+        <f>C51-B51</f>
+        <v>-13579.38</v>
+      </c>
+      <c r="E51" s="1">
+        <f>D51/B51</f>
+        <v>-0.193991142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="19380" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +54,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,47 +120,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,19 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,84 +343,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,6 +377,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -396,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,26 +419,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +455,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -939,16 +939,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>20180328</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$51</c:f>
+              <c:f>Sheet1!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1098,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-0.193991142857143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.185014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,10 +1274,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1421,16 +1427,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>20180328</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1579,6 +1588,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1608,10 +1620,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1761,16 +1773,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>20180328</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20180329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$51</c:f>
+              <c:f>Sheet1!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1920,6 +1935,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>56420.62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57049.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2398,10 +2416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2442,11 +2460,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D50" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D51" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E50" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E51" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3373,12 +3391,31 @@
         <v>56420.62</v>
       </c>
       <c r="D51">
-        <f>C51-B51</f>
+        <f t="shared" si="0"/>
         <v>-13579.38</v>
       </c>
       <c r="E51" s="1">
-        <f>D51/B51</f>
+        <f t="shared" si="1"/>
         <v>-0.193991142857143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>20180329</v>
+      </c>
+      <c r="B52">
+        <v>70000</v>
+      </c>
+      <c r="C52">
+        <v>57049.02</v>
+      </c>
+      <c r="D52">
+        <f>C52-B52</f>
+        <v>-12950.98</v>
+      </c>
+      <c r="E52" s="1">
+        <f>D52/B52</f>
+        <v>-0.185014</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,39 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,51 +178,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,31 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,49 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,6 +289,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,18 +389,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -396,6 +396,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,41 +490,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -942,16 +942,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>20180329</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20180330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$52</c:f>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1104,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.185014</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.175089714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,10 +1280,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1430,16 +1436,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>20180329</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20180330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>Sheet1!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1591,6 +1600,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1620,10 +1632,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1776,16 +1788,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>20180329</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20180330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1938,6 +1953,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>57049.02</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57743.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,10 +2434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2460,11 +2478,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D51" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D52" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E51" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E52" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3410,12 +3428,31 @@
         <v>57049.02</v>
       </c>
       <c r="D52">
-        <f>C52-B52</f>
+        <f t="shared" si="0"/>
         <v>-12950.98</v>
       </c>
       <c r="E52" s="1">
-        <f>D52/B52</f>
+        <f t="shared" si="1"/>
         <v>-0.185014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>20180330</v>
+      </c>
+      <c r="B53">
+        <v>70000</v>
+      </c>
+      <c r="C53">
+        <v>57743.72</v>
+      </c>
+      <c r="D53">
+        <f>C53-B53</f>
+        <v>-12256.28</v>
+      </c>
+      <c r="E53" s="1">
+        <f>D53/B53</f>
+        <v>-0.175089714285714</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,18 +52,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -90,24 +106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,24 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +151,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,13 +173,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,7 +182,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,31 +283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,24 +325,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,6 +347,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -401,11 +401,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,26 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,26 +471,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,7 +762,7 @@
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:f>Sheet1!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -945,16 +945,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>20180330</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20180402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:f>Sheet1!$E$2:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1110,6 +1113,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.175089714285714</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.167951142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,10 +1286,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:f>Sheet1!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1439,16 +1445,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>20180330</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20180402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$53</c:f>
+              <c:f>Sheet1!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1603,6 +1612,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1632,10 +1644,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:f>Sheet1!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1791,16 +1803,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>20180330</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20180402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:f>Sheet1!$C$2:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1956,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>57743.72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58243.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,10 +2452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2478,11 +2496,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D52" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D53" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E52" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E53" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3447,12 +3465,31 @@
         <v>57743.72</v>
       </c>
       <c r="D53">
-        <f>C53-B53</f>
+        <f t="shared" si="0"/>
         <v>-12256.28</v>
       </c>
       <c r="E53" s="1">
-        <f>D53/B53</f>
+        <f t="shared" si="1"/>
         <v>-0.175089714285714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>20180402</v>
+      </c>
+      <c r="B54">
+        <v>70000</v>
+      </c>
+      <c r="C54">
+        <v>58243.42</v>
+      </c>
+      <c r="D54">
+        <f>C54-B54</f>
+        <v>-11756.58</v>
+      </c>
+      <c r="E54" s="1">
+        <f>D54/B54</f>
+        <v>-0.167951142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -40,8 +40,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +49,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,6 +82,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -77,9 +138,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,27 +155,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,22 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -166,31 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,6 +248,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,36 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,48 +389,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -399,11 +399,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +449,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,47 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$54</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -948,16 +948,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>20180402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20180403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$54</c:f>
+              <c:f>Sheet1!$E$2:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1116,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.167951142857143</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.17397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,10 +1292,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$54</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1448,16 +1454,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>20180402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20180403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$54</c:f>
+              <c:f>Sheet1!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1615,6 +1624,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1644,10 +1656,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$54</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1806,16 +1818,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>20180402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20180403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$54</c:f>
+              <c:f>Sheet1!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1974,6 +1989,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>58243.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57822.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,10 +2470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2496,11 +2514,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D53" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D54" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E53" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E54" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3484,12 +3502,31 @@
         <v>58243.42</v>
       </c>
       <c r="D54">
-        <f>C54-B54</f>
+        <f t="shared" si="0"/>
         <v>-11756.58</v>
       </c>
       <c r="E54" s="1">
-        <f>D54/B54</f>
+        <f t="shared" si="1"/>
         <v>-0.167951142857143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>20180403</v>
+      </c>
+      <c r="B55">
+        <v>70000</v>
+      </c>
+      <c r="C55">
+        <v>57822.1</v>
+      </c>
+      <c r="D55">
+        <f>C55-B55</f>
+        <v>-12177.9</v>
+      </c>
+      <c r="E55" s="1">
+        <f>D55/B55</f>
+        <v>-0.17397</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,9 +38,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -54,29 +54,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +158,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -202,36 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -355,6 +325,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,30 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -434,6 +410,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +473,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$55</c:f>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -951,16 +951,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>20180403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20180404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$55</c:f>
+              <c:f>Sheet1!$E$2:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1122,6 +1125,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.17397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.176221428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,10 +1298,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$55</c:f>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1457,16 +1463,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>20180403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20180404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$55</c:f>
+              <c:f>Sheet1!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1627,6 +1636,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1656,10 +1668,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$55</c:f>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1821,16 +1833,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>20180403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20180404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$55</c:f>
+              <c:f>Sheet1!$C$2:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -1992,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>57822.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57664.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,10 +2488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2514,11 +2532,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D54" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D55" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E54" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E55" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3521,12 +3539,31 @@
         <v>57822.1</v>
       </c>
       <c r="D55">
-        <f>C55-B55</f>
+        <f t="shared" si="0"/>
         <v>-12177.9</v>
       </c>
       <c r="E55" s="1">
-        <f>D55/B55</f>
+        <f t="shared" si="1"/>
         <v>-0.17397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>20180404</v>
+      </c>
+      <c r="B56">
+        <v>70000</v>
+      </c>
+      <c r="C56">
+        <v>57664.5</v>
+      </c>
+      <c r="D56">
+        <f>C56-B56</f>
+        <v>-12335.5</v>
+      </c>
+      <c r="E56" s="1">
+        <f>D56/B56</f>
+        <v>-0.176221428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +54,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,29 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -202,6 +202,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -325,36 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,6 +399,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -410,15 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -954,16 +954,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>20180404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20180409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$56</c:f>
+              <c:f>Sheet1!$E$2:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1128,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-0.176221428571429</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.177464285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,10 +1304,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1466,16 +1472,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>20180404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20180409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$56</c:f>
+              <c:f>Sheet1!$B$2:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1639,6 +1648,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1668,10 +1680,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1836,16 +1848,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>20180404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20180409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$56</c:f>
+              <c:f>Sheet1!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2010,6 +2025,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57664.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57577.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,10 +2506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2532,11 +2550,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D55" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D56" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E55" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E56" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3558,12 +3576,31 @@
         <v>57664.5</v>
       </c>
       <c r="D56">
-        <f>C56-B56</f>
+        <f t="shared" si="0"/>
         <v>-12335.5</v>
       </c>
       <c r="E56" s="1">
-        <f>D56/B56</f>
+        <f t="shared" si="1"/>
         <v>-0.176221428571429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>20180409</v>
+      </c>
+      <c r="B57">
+        <v>70000</v>
+      </c>
+      <c r="C57">
+        <v>57577.5</v>
+      </c>
+      <c r="D57">
+        <f>C57-B57</f>
+        <v>-12422.5</v>
+      </c>
+      <c r="E57" s="1">
+        <f>D57/B57</f>
+        <v>-0.177464285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,8 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,18 +211,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,13 +223,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,19 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,115 +516,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,13 +633,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -957,16 +957,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>20180409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20180410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$57</c:f>
+              <c:f>Sheet1!$E$2:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1134,6 +1137,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>-0.177464285714286</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.174288571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,10 +1310,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1475,16 +1481,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>20180409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20180410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$57</c:f>
+              <c:f>Sheet1!$B$2:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1651,6 +1660,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1680,10 +1692,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
+              <c:f>Sheet1!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1851,16 +1863,19 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>20180409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20180410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$57</c:f>
+              <c:f>Sheet1!$C$2:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2028,6 +2043,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>57577.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57799.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,15 +2179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>75565</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>275590</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2177,7 +2195,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7333615" y="2352675"/>
+        <a:off x="7343140" y="2343150"/>
         <a:ext cx="7086600" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2506,10 +2524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2550,11 +2568,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D56" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D57" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E56" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E57" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3595,12 +3613,31 @@
         <v>57577.5</v>
       </c>
       <c r="D57">
-        <f>C57-B57</f>
+        <f t="shared" si="0"/>
         <v>-12422.5</v>
       </c>
       <c r="E57" s="1">
-        <f>D57/B57</f>
+        <f t="shared" si="1"/>
         <v>-0.177464285714286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>20180410</v>
+      </c>
+      <c r="B58">
+        <v>70000</v>
+      </c>
+      <c r="C58">
+        <v>57799.8</v>
+      </c>
+      <c r="D58">
+        <f>C58-B58</f>
+        <v>-12200.2</v>
+      </c>
+      <c r="E58" s="1">
+        <f>D58/B58</f>
+        <v>-0.174288571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,7 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -182,6 +181,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,49 +223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +253,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,97 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$58</c:f>
+              <c:f>Sheet1!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -960,16 +960,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>20180410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20180411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$58</c:f>
+              <c:f>Sheet1!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1140,6 +1143,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>-0.174288571428571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.164131428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,10 +1316,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$58</c:f>
+              <c:f>Sheet1!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1484,16 +1490,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>20180410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20180411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$58</c:f>
+              <c:f>Sheet1!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1663,6 +1672,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1692,10 +1704,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$58</c:f>
+              <c:f>Sheet1!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1866,16 +1878,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>20180410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20180411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$58</c:f>
+              <c:f>Sheet1!$C$2:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2046,6 +2061,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>57799.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58510.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,13 +2199,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>75565</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2195,7 +2213,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7343140" y="2343150"/>
+        <a:off x="7343140" y="2333625"/>
         <a:ext cx="7086600" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2524,10 +2542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2568,11 +2586,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D57" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D58" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E57" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E58" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3632,12 +3650,31 @@
         <v>57799.8</v>
       </c>
       <c r="D58">
-        <f>C58-B58</f>
+        <f t="shared" si="0"/>
         <v>-12200.2</v>
       </c>
       <c r="E58" s="1">
-        <f>D58/B58</f>
+        <f t="shared" si="1"/>
         <v>-0.174288571428571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>20180411</v>
+      </c>
+      <c r="B59">
+        <v>70000</v>
+      </c>
+      <c r="C59">
+        <v>58510.8</v>
+      </c>
+      <c r="D59">
+        <f>C59-B59</f>
+        <v>-11489.2</v>
+      </c>
+      <c r="E59" s="1">
+        <f>D59/B59</f>
+        <v>-0.164131428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,92 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +76,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,9 +119,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,8 +164,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +229,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,109 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,36 +389,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -399,17 +399,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,17 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,39 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$59</c:f>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -963,16 +963,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>20180411</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20180412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$59</c:f>
+              <c:f>Sheet1!$E$2:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1146,6 +1149,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.164131428571429</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.166945714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,10 +1322,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$59</c:f>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1493,16 +1499,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>20180411</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20180412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$59</c:f>
+              <c:f>Sheet1!$B$2:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1675,6 +1684,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1704,10 +1716,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$59</c:f>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1881,16 +1893,19 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>20180411</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20180412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$59</c:f>
+              <c:f>Sheet1!$C$2:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2064,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>58510.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58313.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,10 +2560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2586,11 +2604,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D58" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D59" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E58" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E59" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3669,12 +3687,31 @@
         <v>58510.8</v>
       </c>
       <c r="D59">
-        <f>C59-B59</f>
+        <f t="shared" si="0"/>
         <v>-11489.2</v>
       </c>
       <c r="E59" s="1">
-        <f>D59/B59</f>
+        <f t="shared" si="1"/>
         <v>-0.164131428571429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>20180412</v>
+      </c>
+      <c r="B60">
+        <v>70000</v>
+      </c>
+      <c r="C60">
+        <v>58313.8</v>
+      </c>
+      <c r="D60">
+        <f>C60-B60</f>
+        <v>-11686.2</v>
+      </c>
+      <c r="E60" s="1">
+        <f>D60/B60</f>
+        <v>-0.166945714285714</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -40,8 +40,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,7 +53,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,35 +155,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,22 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -149,48 +189,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,6 +248,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,66 +389,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -399,50 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,17 +438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +463,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -966,16 +966,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>20180412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20180413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$60</c:f>
+              <c:f>Sheet1!$E$2:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1152,6 +1155,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.166945714285714</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.16383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,10 +1328,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1502,16 +1508,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>20180412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20180413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$60</c:f>
+              <c:f>Sheet1!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1687,6 +1696,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1716,10 +1728,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1896,16 +1908,19 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>20180412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20180413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$60</c:f>
+              <c:f>Sheet1!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2082,6 +2097,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>58313.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58531.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,10 +2578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2604,11 +2622,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D59" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D60" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E59" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E60" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3706,12 +3724,31 @@
         <v>58313.8</v>
       </c>
       <c r="D60">
-        <f>C60-B60</f>
+        <f t="shared" si="0"/>
         <v>-11686.2</v>
       </c>
       <c r="E60" s="1">
-        <f>D60/B60</f>
+        <f t="shared" si="1"/>
         <v>-0.166945714285714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>20180413</v>
+      </c>
+      <c r="B61">
+        <v>70000</v>
+      </c>
+      <c r="C61">
+        <v>58531.9</v>
+      </c>
+      <c r="D61">
+        <f>C61-B61</f>
+        <v>-11468.1</v>
+      </c>
+      <c r="E61" s="1">
+        <f>D61/B61</f>
+        <v>-0.16383</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$61</c:f>
+              <c:f>Sheet1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -969,16 +969,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>20180413</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20180416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$61</c:f>
+              <c:f>Sheet1!$E$2:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1158,6 +1161,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.16383</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.169351428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1334,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$61</c:f>
+              <c:f>Sheet1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1511,16 +1517,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>20180413</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20180416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$61</c:f>
+              <c:f>Sheet1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1699,6 +1708,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1728,10 +1740,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$61</c:f>
+              <c:f>Sheet1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1911,16 +1923,19 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>20180413</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20180416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$61</c:f>
+              <c:f>Sheet1!$C$2:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2100,6 +2115,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>58531.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58145.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,10 +2596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2622,11 +2640,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D60" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D61" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E60" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E61" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3743,12 +3761,31 @@
         <v>58531.9</v>
       </c>
       <c r="D61">
-        <f>C61-B61</f>
+        <f t="shared" si="0"/>
         <v>-11468.1</v>
       </c>
       <c r="E61" s="1">
-        <f>D61/B61</f>
+        <f t="shared" si="1"/>
         <v>-0.16383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>20180416</v>
+      </c>
+      <c r="B62">
+        <v>70000</v>
+      </c>
+      <c r="C62">
+        <v>58145.4</v>
+      </c>
+      <c r="D62">
+        <f>C62-B62</f>
+        <v>-11854.6</v>
+      </c>
+      <c r="E62" s="1">
+        <f>D62/B62</f>
+        <v>-0.169351428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,14 +60,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -77,6 +69,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +114,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,22 +152,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +173,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,43 +247,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,31 +295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,37 +325,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,65 +419,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +446,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,130 +516,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$62</c:f>
+              <c:f>Sheet1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -972,16 +972,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>20180416</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20180417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$62</c:f>
+              <c:f>Sheet1!$E$2:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1164,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.169351428571429</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.184445714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,10 +1340,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$62</c:f>
+              <c:f>Sheet1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1520,16 +1526,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>20180416</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20180417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
+              <c:f>Sheet1!$B$2:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1711,6 +1720,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1740,10 +1752,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$62</c:f>
+              <c:f>Sheet1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1926,16 +1938,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>20180416</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20180417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$62</c:f>
+              <c:f>Sheet1!$C$2:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2118,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>58145.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57088.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,10 +2614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2640,11 +2658,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D61" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D62" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E61" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E62" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3780,12 +3798,31 @@
         <v>58145.4</v>
       </c>
       <c r="D62">
-        <f>C62-B62</f>
+        <f t="shared" si="0"/>
         <v>-11854.6</v>
       </c>
       <c r="E62" s="1">
-        <f>D62/B62</f>
+        <f t="shared" si="1"/>
         <v>-0.169351428571429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>20180417</v>
+      </c>
+      <c r="B63">
+        <v>70000</v>
+      </c>
+      <c r="C63">
+        <v>57088.8</v>
+      </c>
+      <c r="D63">
+        <f>C63-B63</f>
+        <v>-12911.2</v>
+      </c>
+      <c r="E63" s="1">
+        <f>D63/B63</f>
+        <v>-0.184445714285714</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -40,8 +40,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +60,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -69,21 +77,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,36 +107,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +123,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,24 +160,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,12 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -218,18 +212,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +235,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +283,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,37 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,61 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,15 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,6 +410,65 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,56 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$63</c:f>
+              <c:f>Sheet1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -975,16 +975,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>20180417</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20180418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$63</c:f>
+              <c:f>Sheet1!$E$2:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1170,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-0.184445714285714</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.179731428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,10 +1346,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$63</c:f>
+              <c:f>Sheet1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1529,16 +1535,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>20180417</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20180418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$63</c:f>
+              <c:f>Sheet1!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1723,6 +1732,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1752,10 +1764,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$63</c:f>
+              <c:f>Sheet1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1941,16 +1953,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>20180417</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20180418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$63</c:f>
+              <c:f>Sheet1!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2136,6 +2151,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>57088.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>57418.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,10 +2632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2658,11 +2676,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D62" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D63" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E62" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E63" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3817,12 +3835,31 @@
         <v>57088.8</v>
       </c>
       <c r="D63">
-        <f>C63-B63</f>
+        <f t="shared" si="0"/>
         <v>-12911.2</v>
       </c>
       <c r="E63" s="1">
-        <f>D63/B63</f>
+        <f t="shared" si="1"/>
         <v>-0.184445714285714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>20180418</v>
+      </c>
+      <c r="B64">
+        <v>70000</v>
+      </c>
+      <c r="C64">
+        <v>57418.8</v>
+      </c>
+      <c r="D64">
+        <f>C64-B64</f>
+        <v>-12581.2</v>
+      </c>
+      <c r="E64" s="1">
+        <f>D64/B64</f>
+        <v>-0.179731428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,6 +205,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,6 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +289,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,25 +343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,43 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$64</c:f>
+              <c:f>Sheet1!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -978,16 +978,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>20180418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20180419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$64</c:f>
+              <c:f>Sheet1!$E$2:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1176,6 +1179,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-0.179731428571429</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.179992857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,10 +1352,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$64</c:f>
+              <c:f>Sheet1!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1538,16 +1544,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>20180418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20180419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$64</c:f>
+              <c:f>Sheet1!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1735,6 +1744,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1764,10 +1776,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$64</c:f>
+              <c:f>Sheet1!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1956,16 +1968,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>20180418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20180419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$64</c:f>
+              <c:f>Sheet1!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2154,6 +2169,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>57418.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57400.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,10 +2650,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2676,11 +2694,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D63" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D64" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E63" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E64" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3854,12 +3872,31 @@
         <v>57418.8</v>
       </c>
       <c r="D64">
-        <f>C64-B64</f>
+        <f t="shared" si="0"/>
         <v>-12581.2</v>
       </c>
       <c r="E64" s="1">
-        <f>D64/B64</f>
+        <f t="shared" si="1"/>
         <v>-0.179731428571429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>20180419</v>
+      </c>
+      <c r="B65">
+        <v>70000</v>
+      </c>
+      <c r="C65">
+        <v>57400.5</v>
+      </c>
+      <c r="D65">
+        <f>C65-B65</f>
+        <v>-12599.5</v>
+      </c>
+      <c r="E65" s="1">
+        <f>D65/B65</f>
+        <v>-0.179992857142857</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$65</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -981,16 +981,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>20180419</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20180420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$65</c:f>
+              <c:f>Sheet1!$E$2:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1182,6 +1185,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>-0.179992857142857</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.192561428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1358,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$65</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1547,16 +1553,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>20180419</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20180420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$65</c:f>
+              <c:f>Sheet1!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1747,6 +1756,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1776,10 +1788,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$65</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1971,16 +1983,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>20180419</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20180420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$65</c:f>
+              <c:f>Sheet1!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2172,6 +2187,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>57400.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56520.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,10 +2668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2694,11 +2712,11 @@
         <v>36318.53</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D64" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D65" si="0">C2-B2</f>
         <v>-8681.47</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E64" si="1">D2/B2</f>
+        <f t="shared" ref="E2:E65" si="1">D2/B2</f>
         <v>-0.192921555555556</v>
       </c>
     </row>
@@ -3891,12 +3909,31 @@
         <v>57400.5</v>
       </c>
       <c r="D65">
-        <f>C65-B65</f>
+        <f t="shared" si="0"/>
         <v>-12599.5</v>
       </c>
       <c r="E65" s="1">
-        <f>D65/B65</f>
+        <f t="shared" si="1"/>
         <v>-0.179992857142857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>20180420</v>
+      </c>
+      <c r="B66">
+        <v>70000</v>
+      </c>
+      <c r="C66">
+        <v>56520.7</v>
+      </c>
+      <c r="D66">
+        <f>C66-B66</f>
+        <v>-13479.3</v>
+      </c>
+      <c r="E66" s="1">
+        <f>D66/B66</f>
+        <v>-0.192561428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,15 +38,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -61,48 +76,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,53 +91,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +111,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,25 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,66 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,13 +253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +313,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,45 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,26 +410,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +432,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$66</c:f>
+              <c:f>Sheet1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -984,16 +984,19 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>20180420</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20180423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$66</c:f>
+              <c:f>Sheet1!$E$2:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1188,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>-0.192561428571429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.196041428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1364,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$66</c:f>
+              <c:f>Sheet1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1556,16 +1562,19 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>20180420</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20180423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$66</c:f>
+              <c:f>Sheet1!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1759,6 +1768,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1788,10 +1800,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$66</c:f>
+              <c:f>Sheet1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1986,16 +1998,19 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>20180420</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20180423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$66</c:f>
+              <c:f>Sheet1!$C$2:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2190,6 +2205,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>56520.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56277.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3934,6 +3952,25 @@
       <c r="E66" s="1">
         <f>D66/B66</f>
         <v>-0.192561428571429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>20180423</v>
+      </c>
+      <c r="B67">
+        <v>70000</v>
+      </c>
+      <c r="C67">
+        <v>56277.1</v>
+      </c>
+      <c r="D67">
+        <f>C67-B67</f>
+        <v>-13722.9</v>
+      </c>
+      <c r="E67" s="1">
+        <f>D67/B67</f>
+        <v>-0.196041428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,22 +53,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,14 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,21 +110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -140,9 +118,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +143,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,17 +182,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,72 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -289,7 +223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +283,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +355,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,17 +399,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,20 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,28 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +476,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,7 +516,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,124 +525,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:f>Sheet1!$A$2:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -987,16 +987,19 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>20180423</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20180424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$67</c:f>
+              <c:f>Sheet1!$E$2:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1194,6 +1197,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.196041428571429</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.189968571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1370,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:f>Sheet1!$A$2:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1565,16 +1571,19 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>20180423</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20180424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$67</c:f>
+              <c:f>Sheet1!$B$2:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1771,6 +1780,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1800,10 +1812,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:f>Sheet1!$A$2:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -2001,16 +2013,19 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>20180423</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20180424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$67</c:f>
+              <c:f>Sheet1!$C$2:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2208,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>56277.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>56702.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,10 +2704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3971,6 +3989,25 @@
       <c r="E67" s="1">
         <f>D67/B67</f>
         <v>-0.196041428571429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>20180424</v>
+      </c>
+      <c r="B68">
+        <v>70000</v>
+      </c>
+      <c r="C68">
+        <v>56702.2</v>
+      </c>
+      <c r="D68">
+        <f>C68-B68</f>
+        <v>-13297.8</v>
+      </c>
+      <c r="E68" s="1">
+        <f>D68/B68</f>
+        <v>-0.189968571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -66,19 +66,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,10 +102,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -150,31 +181,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,14 +193,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,12 +349,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,8 +402,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,30 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,7 +507,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,111 +525,111 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$68</c:f>
+              <c:f>Sheet1!$A$2:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -990,16 +990,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>20180424</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20180425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$68</c:f>
+              <c:f>Sheet1!$E$2:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1200,6 +1203,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-0.189968571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.188208571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,10 +1376,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$68</c:f>
+              <c:f>Sheet1!$A$2:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1574,16 +1580,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>20180424</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20180425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$68</c:f>
+              <c:f>Sheet1!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1783,6 +1792,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1812,10 +1824,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$68</c:f>
+              <c:f>Sheet1!$A$2:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -2016,16 +2028,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>20180424</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20180425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$68</c:f>
+              <c:f>Sheet1!$C$2:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2226,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>56702.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>56825.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,10 +2722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4008,6 +4026,25 @@
       <c r="E68" s="1">
         <f>D68/B68</f>
         <v>-0.189968571428571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>20180425</v>
+      </c>
+      <c r="B69">
+        <v>70000</v>
+      </c>
+      <c r="C69">
+        <v>56825.4</v>
+      </c>
+      <c r="D69">
+        <f>C69-B69</f>
+        <v>-13174.6</v>
+      </c>
+      <c r="E69" s="1">
+        <f>D69/B69</f>
+        <v>-0.188208571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,9 +38,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -53,14 +53,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,67 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,46 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,24 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -241,19 +223,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,55 +307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +355,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,11 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,8 +417,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +434,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,21 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,11 +490,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$69</c:f>
+              <c:f>Sheet1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -993,16 +993,19 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>20180425</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20180426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$69</c:f>
+              <c:f>Sheet1!$E$2:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1206,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-0.188208571428571</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.199094285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,10 +1382,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$69</c:f>
+              <c:f>Sheet1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1583,16 +1589,19 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>20180425</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20180426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$69</c:f>
+              <c:f>Sheet1!$B$2:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1795,6 +1804,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1824,10 +1836,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$69</c:f>
+              <c:f>Sheet1!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -2031,16 +2043,19 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>20180425</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20180426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$69</c:f>
+              <c:f>Sheet1!$C$2:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2244,6 +2259,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>56825.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56063.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,10 +2740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4045,6 +4063,25 @@
       <c r="E69" s="1">
         <f>D69/B69</f>
         <v>-0.188208571428571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>20180426</v>
+      </c>
+      <c r="B70">
+        <v>70000</v>
+      </c>
+      <c r="C70">
+        <v>56063.4</v>
+      </c>
+      <c r="D70">
+        <f>C70-B70</f>
+        <v>-13936.6</v>
+      </c>
+      <c r="E70" s="1">
+        <f>D70/B70</f>
+        <v>-0.199094285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +54,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,29 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,7 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,31 +265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,55 +301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,15 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -996,16 +996,19 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>20180426</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20180427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$70</c:f>
+              <c:f>Sheet1!$E$2:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1212,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>-0.199094285714286</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.186118571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,10 +1388,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1592,16 +1598,19 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>20180426</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20180427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$70</c:f>
+              <c:f>Sheet1!$B$2:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1807,6 +1816,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1836,10 +1848,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -2046,16 +2058,19 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>20180426</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20180427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$70</c:f>
+              <c:f>Sheet1!$C$2:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2262,6 +2277,9 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>56063.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56971.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,10 +2758,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4082,6 +4100,25 @@
       <c r="E70" s="1">
         <f>D70/B70</f>
         <v>-0.199094285714286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>20180427</v>
+      </c>
+      <c r="B71">
+        <v>70000</v>
+      </c>
+      <c r="C71">
+        <v>56971.7</v>
+      </c>
+      <c r="D71">
+        <f>C71-B71</f>
+        <v>-13028.3</v>
+      </c>
+      <c r="E71" s="1">
+        <f>D71/B71</f>
+        <v>-0.186118571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,15 +38,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -61,48 +76,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,53 +91,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +111,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,19 +205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,13 +241,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,91 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,45 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,26 +410,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +432,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>Sheet1!$A$2:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -999,16 +999,19 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>20180427</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20180502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$71</c:f>
+              <c:f>Sheet1!$E$2:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1218,6 +1221,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-0.186118571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.194085142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,10 +1394,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>Sheet1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1601,16 +1607,19 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>20180427</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20180502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$71</c:f>
+              <c:f>Sheet1!$B$2:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>45000</c:v>
                 </c:pt>
@@ -1819,6 +1828,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1848,10 +1860,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>Sheet1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -2061,16 +2073,19 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>20180427</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20180502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$71</c:f>
+              <c:f>Sheet1!$C$2:$C$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>36318.53</c:v>
                 </c:pt>
@@ -2280,6 +2295,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>56971.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56414.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,10 +2776,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4018,11 +4036,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f>C66-B66</f>
+        <f t="shared" ref="D66:D71" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f>D66/B66</f>
+        <f t="shared" ref="E66:E71" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4037,11 +4055,11 @@
         <v>56277.1</v>
       </c>
       <c r="D67">
-        <f>C67-B67</f>
+        <f t="shared" si="2"/>
         <v>-13722.9</v>
       </c>
       <c r="E67" s="1">
-        <f>D67/B67</f>
+        <f t="shared" si="3"/>
         <v>-0.196041428571429</v>
       </c>
     </row>
@@ -4056,11 +4074,11 @@
         <v>56702.2</v>
       </c>
       <c r="D68">
-        <f>C68-B68</f>
+        <f t="shared" si="2"/>
         <v>-13297.8</v>
       </c>
       <c r="E68" s="1">
-        <f>D68/B68</f>
+        <f t="shared" si="3"/>
         <v>-0.189968571428571</v>
       </c>
     </row>
@@ -4075,11 +4093,11 @@
         <v>56825.4</v>
       </c>
       <c r="D69">
-        <f>C69-B69</f>
+        <f t="shared" si="2"/>
         <v>-13174.6</v>
       </c>
       <c r="E69" s="1">
-        <f>D69/B69</f>
+        <f t="shared" si="3"/>
         <v>-0.188208571428571</v>
       </c>
     </row>
@@ -4094,11 +4112,11 @@
         <v>56063.4</v>
       </c>
       <c r="D70">
-        <f>C70-B70</f>
+        <f t="shared" si="2"/>
         <v>-13936.6</v>
       </c>
       <c r="E70" s="1">
-        <f>D70/B70</f>
+        <f t="shared" si="3"/>
         <v>-0.199094285714286</v>
       </c>
     </row>
@@ -4113,12 +4131,31 @@
         <v>56971.7</v>
       </c>
       <c r="D71">
-        <f>C71-B71</f>
+        <f t="shared" si="2"/>
         <v>-13028.3</v>
       </c>
       <c r="E71" s="1">
-        <f>D71/B71</f>
+        <f t="shared" si="3"/>
         <v>-0.186118571428571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>20180502</v>
+      </c>
+      <c r="B72">
+        <v>70000</v>
+      </c>
+      <c r="C72">
+        <v>56414.04</v>
+      </c>
+      <c r="D72">
+        <f>C72-B72</f>
+        <v>-13585.96</v>
+      </c>
+      <c r="E72" s="1">
+        <f>D72/B72</f>
+        <v>-0.194085142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -39,9 +39,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$72</c:f>
+              <c:f>Sheet1!$A$2:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1002,16 +1002,19 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>20180502</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20180503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$72</c:f>
+              <c:f>Sheet1!$E$2:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1224,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.194085142857143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.185766571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,6 +1617,9 @@
                 <c:pt idx="70">
                   <c:v>20180502</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>20180503</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1831,6 +1840,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2077,6 +2089,9 @@
                 <c:pt idx="70">
                   <c:v>20180502</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>20180503</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2298,6 +2313,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>56414.04</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56996.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2776,10 +2794,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4036,11 +4054,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D71" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D72" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E71" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E72" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4150,12 +4168,31 @@
         <v>56414.04</v>
       </c>
       <c r="D72">
-        <f>C72-B72</f>
+        <f t="shared" si="2"/>
         <v>-13585.96</v>
       </c>
       <c r="E72" s="1">
-        <f>D72/B72</f>
+        <f t="shared" si="3"/>
         <v>-0.194085142857143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>20180503</v>
+      </c>
+      <c r="B73">
+        <v>70000</v>
+      </c>
+      <c r="C73">
+        <v>56996.34</v>
+      </c>
+      <c r="D73">
+        <f>C73-B73</f>
+        <v>-13003.66</v>
+      </c>
+      <c r="E73" s="1">
+        <f>D73/B73</f>
+        <v>-0.185766571428571</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,30 +38,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -76,9 +61,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,6 +115,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,70 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,14 +191,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,6 +253,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,19 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,49 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,25 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,6 +449,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,67 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$73</c:f>
+              <c:f>Sheet1!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1005,16 +1005,19 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>20180503</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20180504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$73</c:f>
+              <c:f>Sheet1!$E$2:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1230,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-0.185766571428571</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.180928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,6 +1626,9 @@
                 <c:pt idx="71">
                   <c:v>20180503</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>20180504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1843,6 +1852,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2092,6 +2104,9 @@
                 <c:pt idx="71">
                   <c:v>20180503</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>20180504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2316,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>56996.34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>57335.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,10 +2812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4054,11 +4072,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D72" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D73" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E72" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E73" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4187,12 +4205,31 @@
         <v>56996.34</v>
       </c>
       <c r="D73">
-        <f>C73-B73</f>
+        <f t="shared" si="2"/>
         <v>-13003.66</v>
       </c>
       <c r="E73" s="1">
-        <f>D73/B73</f>
+        <f t="shared" si="3"/>
         <v>-0.185766571428571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>20180504</v>
+      </c>
+      <c r="B74">
+        <v>70000</v>
+      </c>
+      <c r="C74">
+        <v>57335.04</v>
+      </c>
+      <c r="D74">
+        <f>C74-B74</f>
+        <v>-12664.96</v>
+      </c>
+      <c r="E74" s="1">
+        <f>D74/B74</f>
+        <v>-0.180928</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$74</c:f>
+              <c:f>Sheet1!$A$2:$A$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1008,16 +1008,19 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>20180504</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20180507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$74</c:f>
+              <c:f>Sheet1!$E$2:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1236,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>-0.180928</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.166215142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,6 +1635,9 @@
                 <c:pt idx="72">
                   <c:v>20180504</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>20180507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1855,6 +1864,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2107,6 +2119,9 @@
                 <c:pt idx="72">
                   <c:v>20180504</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>20180507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2334,6 +2349,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>57335.04</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>58364.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,10 +2830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4072,11 +4090,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D73" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D74" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E73" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E74" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4224,12 +4242,31 @@
         <v>57335.04</v>
       </c>
       <c r="D74">
-        <f>C74-B74</f>
+        <f t="shared" si="2"/>
         <v>-12664.96</v>
       </c>
       <c r="E74" s="1">
-        <f>D74/B74</f>
+        <f t="shared" si="3"/>
         <v>-0.180928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>20180507</v>
+      </c>
+      <c r="B75">
+        <v>70000</v>
+      </c>
+      <c r="C75">
+        <v>58364.94</v>
+      </c>
+      <c r="D75">
+        <f>C75-B75</f>
+        <v>-11635.06</v>
+      </c>
+      <c r="E75" s="1">
+        <f>D75/B75</f>
+        <v>-0.166215142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,7 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +61,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,6 +77,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,70 +105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +126,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -189,8 +157,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,37 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,19 +235,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +277,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,97 +361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,60 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,7 +414,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +437,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$75</c:f>
+              <c:f>Sheet1!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1011,16 +1011,19 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>20180507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20180508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$75</c:f>
+              <c:f>Sheet1!$E$2:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1242,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.166215142857143</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.162839428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,6 +1644,9 @@
                 <c:pt idx="73">
                   <c:v>20180507</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>20180508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1867,6 +1876,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2122,6 +2134,9 @@
                 <c:pt idx="73">
                   <c:v>20180507</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>20180508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2352,6 +2367,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>58364.94</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>58601.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,10 +2848,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4090,11 +4108,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D74" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D75" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E74" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E75" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4261,12 +4279,31 @@
         <v>58364.94</v>
       </c>
       <c r="D75">
-        <f>C75-B75</f>
+        <f t="shared" si="2"/>
         <v>-11635.06</v>
       </c>
       <c r="E75" s="1">
-        <f>D75/B75</f>
+        <f t="shared" si="3"/>
         <v>-0.166215142857143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>20180508</v>
+      </c>
+      <c r="B76">
+        <v>70000</v>
+      </c>
+      <c r="C76">
+        <v>58601.24</v>
+      </c>
+      <c r="D76">
+        <f>C76-B76</f>
+        <v>-11398.76</v>
+      </c>
+      <c r="E76" s="1">
+        <f>D76/B76</f>
+        <v>-0.162839428571429</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,7 +53,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +61,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,13 +77,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,8 +98,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,29 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -157,40 +189,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,19 +205,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,31 +253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +283,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,73 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,7 +468,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,62 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$76</c:f>
+              <c:f>Sheet1!$A$2:$A$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1014,16 +1014,19 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>20180508</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$76</c:f>
+              <c:f>Sheet1!$E$2:$E$77</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1248,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-0.162839428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.163602285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,6 +1653,9 @@
                 <c:pt idx="74">
                   <c:v>20180508</c:v>
                 </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1879,6 +1888,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2137,6 +2149,9 @@
                 <c:pt idx="74">
                   <c:v>20180508</c:v>
                 </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2370,6 +2385,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>58601.24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>58547.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,10 +2866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4108,11 +4126,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D75" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D76" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E75" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E76" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4298,12 +4316,31 @@
         <v>58601.24</v>
       </c>
       <c r="D76">
-        <f>C76-B76</f>
+        <f t="shared" si="2"/>
         <v>-11398.76</v>
       </c>
       <c r="E76" s="1">
-        <f>D76/B76</f>
+        <f t="shared" si="3"/>
         <v>-0.162839428571429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>20180509</v>
+      </c>
+      <c r="B77">
+        <v>70000</v>
+      </c>
+      <c r="C77">
+        <v>58547.84</v>
+      </c>
+      <c r="D77">
+        <f>C77-B77</f>
+        <v>-11452.16</v>
+      </c>
+      <c r="E77" s="1">
+        <f>D77/B77</f>
+        <v>-0.163602285714286</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,29 +54,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +158,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -202,36 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -355,6 +325,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,30 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -434,6 +410,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +473,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$77</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1017,16 +1017,19 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>20180509</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20180510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$77</c:f>
+              <c:f>Sheet1!$E$2:$E$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1254,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.163602285714286</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.157225142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,6 +1662,9 @@
                 <c:pt idx="75">
                   <c:v>20180509</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>20180510</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1891,6 +1900,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2152,6 +2164,9 @@
                 <c:pt idx="75">
                   <c:v>20180509</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>20180510</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2388,6 +2403,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>58547.84</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58994.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,10 +2884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4126,11 +4144,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D76" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D77" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E76" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E77" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4335,12 +4353,31 @@
         <v>58547.84</v>
       </c>
       <c r="D77">
-        <f>C77-B77</f>
+        <f t="shared" si="2"/>
         <v>-11452.16</v>
       </c>
       <c r="E77" s="1">
-        <f>D77/B77</f>
+        <f t="shared" si="3"/>
         <v>-0.163602285714286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>20180510</v>
+      </c>
+      <c r="B78">
+        <v>70000</v>
+      </c>
+      <c r="C78">
+        <v>58994.24</v>
+      </c>
+      <c r="D78">
+        <f>C78-B78</f>
+        <v>-11005.76</v>
+      </c>
+      <c r="E78" s="1">
+        <f>D78/B78</f>
+        <v>-0.157225142857143</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +49,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,14 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -92,46 +92,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +118,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -171,20 +185,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,54 +218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,6 +277,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,18 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,25 +400,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +425,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,16 +459,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,7 +516,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,124 +525,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$78</c:f>
+              <c:f>Sheet1!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1020,16 +1020,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>20180510</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20180511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$78</c:f>
+              <c:f>Sheet1!$E$2:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1260,6 +1263,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-0.157225142857143</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.166183714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,6 +1671,9 @@
                 <c:pt idx="76">
                   <c:v>20180510</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>20180511</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1903,6 +1912,9 @@
                   <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2167,6 +2179,9 @@
                 <c:pt idx="76">
                   <c:v>20180510</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>20180511</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2406,6 +2421,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>58994.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58367.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,10 +2902,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4144,11 +4162,11 @@
         <v>56520.7</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D77" si="2">C66-B66</f>
+        <f t="shared" ref="D66:D78" si="2">C66-B66</f>
         <v>-13479.3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E77" si="3">D66/B66</f>
+        <f t="shared" ref="E66:E78" si="3">D66/B66</f>
         <v>-0.192561428571429</v>
       </c>
     </row>
@@ -4372,12 +4390,31 @@
         <v>58994.24</v>
       </c>
       <c r="D78">
-        <f>C78-B78</f>
+        <f t="shared" si="2"/>
         <v>-11005.76</v>
       </c>
       <c r="E78" s="1">
-        <f>D78/B78</f>
+        <f t="shared" si="3"/>
         <v>-0.157225142857143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>20180511</v>
+      </c>
+      <c r="B79">
+        <v>70000</v>
+      </c>
+      <c r="C79">
+        <v>58367.14</v>
+      </c>
+      <c r="D79">
+        <f>C79-B79</f>
+        <v>-11632.86</v>
+      </c>
+      <c r="E79" s="1">
+        <f>D79/B79</f>
+        <v>-0.166183714285714</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/B.Wealth——Stock accout balance.xlsx
+++ b/做事 Doing/B.Wealth——Stock accout balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,16 +52,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -92,6 +115,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,73 +181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,6 +205,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -218,6 +248,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,12 +355,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,78 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,17 +399,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,15 +449,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,16 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,23 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,10 +786,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$79</c:f>
+              <c:f>Sheet1!$A$2:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>20180111</c:v>
                 </c:pt>
@@ -1023,16 +1023,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>20180511</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20180514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$79</c:f>
+              <c:f>Sheet1!$E$2:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>-0.192921555555556</c:v>
                 </c:pt>
@@ -1266,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-0.166183714285714</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.161143714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,6 +1680,9 @@
                 <c:pt idx="77">
                   <c:v>20180511</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>20180514</c:v>
+                </c:pt